--- a/raw_data/20200818_saline/20200818_Sensor2_Test_41.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_41.xlsx
@@ -1,1414 +1,1830 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2BD824-BF65-4A48-9E53-3387E7B3ADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>36372.171484</v>
+        <v>36372.171483999999</v>
       </c>
       <c r="B2" s="1">
-        <v>10.103381</v>
+        <v>10.103381000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1253.610000</v>
+        <v>1253.6099999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-307.063000</v>
+        <v>-307.06299999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>36382.556724</v>
+        <v>36382.556724000002</v>
       </c>
       <c r="G2" s="1">
         <v>10.106266</v>
       </c>
       <c r="H2" s="1">
-        <v>1276.980000</v>
+        <v>1276.98</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.872000</v>
+        <v>-264.87200000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>36393.300560</v>
+        <v>36393.300560000003</v>
       </c>
       <c r="L2" s="1">
-        <v>10.109250</v>
+        <v>10.109249999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1312.660000</v>
+        <v>1312.66</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.229000</v>
+        <v>-203.22900000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>36403.262211</v>
+        <v>36403.262211000001</v>
       </c>
       <c r="Q2" s="1">
         <v>10.112017</v>
       </c>
       <c r="R2" s="1">
-        <v>1324.510000</v>
+        <v>1324.51</v>
       </c>
       <c r="S2" s="1">
-        <v>-185.419000</v>
+        <v>-185.41900000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>36413.533862</v>
+        <v>36413.533861999997</v>
       </c>
       <c r="V2" s="1">
-        <v>10.114871</v>
+        <v>10.114871000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1337.630000</v>
+        <v>1337.63</v>
       </c>
       <c r="X2" s="1">
-        <v>-172.020000</v>
+        <v>-172.02</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>36423.613592</v>
+        <v>36423.613592000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>10.117670</v>
+        <v>10.11767</v>
       </c>
       <c r="AB2" s="1">
-        <v>1355.200000</v>
+        <v>1355.2</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.808000</v>
+        <v>-169.80799999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>36433.876779</v>
+        <v>36433.876778999998</v>
       </c>
       <c r="AF2" s="1">
         <v>10.120521</v>
       </c>
       <c r="AG2" s="1">
-        <v>1368.210000</v>
+        <v>1368.21</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.365000</v>
+        <v>-179.36500000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>36444.028948</v>
+        <v>36444.028947999999</v>
       </c>
       <c r="AK2" s="1">
         <v>10.123341</v>
       </c>
       <c r="AL2" s="1">
-        <v>1388.900000</v>
+        <v>1388.9</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.214000</v>
+        <v>-209.214</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>36454.587233</v>
+        <v>36454.587232999998</v>
       </c>
       <c r="AP2" s="1">
         <v>10.126274</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1410.560000</v>
+        <v>1410.56</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.097000</v>
+        <v>-253.09700000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>36465.582048</v>
+        <v>36465.582047999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>10.129328</v>
+        <v>10.129327999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1435.020000</v>
+        <v>1435.02</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.287000</v>
+        <v>-313.28699999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>36477.053521</v>
+        <v>36477.053521000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>10.132515</v>
       </c>
       <c r="BA2" s="1">
-        <v>1454.180000</v>
+        <v>1454.18</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.520000</v>
+        <v>-365.52</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>36487.930293</v>
+        <v>36487.930292999998</v>
       </c>
       <c r="BE2" s="1">
         <v>10.135536</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.920000</v>
+        <v>1538.92</v>
       </c>
       <c r="BG2" s="1">
-        <v>-615.127000</v>
+        <v>-615.12699999999995</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>36498.994084</v>
+        <v>36498.994083999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>10.138609</v>
+        <v>10.138609000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1692.680000</v>
+        <v>1692.68</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1063.430000</v>
+        <v>-1063.43</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>36509.743350</v>
+        <v>36509.743349999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>10.141595</v>
+        <v>10.141595000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1986.150000</v>
+        <v>1986.15</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1841.770000</v>
+        <v>-1841.77</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>36520.914248</v>
+        <v>36520.914248000001</v>
       </c>
       <c r="BT2" s="1">
         <v>10.144698</v>
       </c>
       <c r="BU2" s="1">
-        <v>2369.360000</v>
+        <v>2369.36</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2742.010000</v>
+        <v>-2742.01</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>36532.264697</v>
+        <v>36532.264696999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>10.147851</v>
+        <v>10.147850999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2853.800000</v>
+        <v>2853.8</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3728.630000</v>
+        <v>-3728.63</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>36543.163290</v>
+        <v>36543.163289999997</v>
       </c>
       <c r="CD2" s="1">
         <v>10.150879</v>
       </c>
       <c r="CE2" s="1">
-        <v>4282.020000</v>
+        <v>4282.0200000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6119.870000</v>
+        <v>-6119.87</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>36372.851531</v>
       </c>
       <c r="B3" s="1">
-        <v>10.103570</v>
+        <v>10.103569999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1253.660000</v>
+        <v>1253.6600000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-306.872000</v>
+        <v>-306.87200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>36383.203005</v>
+        <v>36383.203005000003</v>
       </c>
       <c r="G3" s="1">
-        <v>10.106445</v>
+        <v>10.106445000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1277.690000</v>
+        <v>1277.69</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.009000</v>
+        <v>-266.00900000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>36393.409680</v>
+        <v>36393.409679999997</v>
       </c>
       <c r="L3" s="1">
-        <v>10.109280</v>
+        <v>10.10928</v>
       </c>
       <c r="M3" s="1">
-        <v>1312.580000</v>
+        <v>1312.58</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.262000</v>
+        <v>-203.262</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>36403.612386</v>
+        <v>36403.612386000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>10.112115</v>
+        <v>10.112114999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1324.520000</v>
+        <v>1324.52</v>
       </c>
       <c r="S3" s="1">
-        <v>-185.413000</v>
+        <v>-185.41300000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>36413.880565</v>
+        <v>36413.880564999999</v>
       </c>
       <c r="V3" s="1">
         <v>10.114967</v>
       </c>
       <c r="W3" s="1">
-        <v>1337.670000</v>
+        <v>1337.67</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.914000</v>
+        <v>-171.91399999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>36423.991545</v>
+        <v>36423.991544999997</v>
       </c>
       <c r="AA3" s="1">
         <v>10.117775</v>
       </c>
       <c r="AB3" s="1">
-        <v>1355.010000</v>
+        <v>1355.01</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.709000</v>
+        <v>-169.709</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>36434.378270</v>
+        <v>36434.378270000001</v>
       </c>
       <c r="AF3" s="1">
         <v>10.120661</v>
       </c>
       <c r="AG3" s="1">
-        <v>1368.240000</v>
+        <v>1368.24</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.384000</v>
+        <v>-179.38399999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>36444.438127</v>
+        <v>36444.438127000001</v>
       </c>
       <c r="AK3" s="1">
         <v>10.123455</v>
       </c>
       <c r="AL3" s="1">
-        <v>1388.890000</v>
+        <v>1388.89</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.230000</v>
+        <v>-209.23</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>36455.030159</v>
+        <v>36455.030159000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>10.126397</v>
+        <v>10.126397000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1410.470000</v>
+        <v>1410.47</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.092000</v>
+        <v>-253.09200000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>36466.247681</v>
+        <v>36466.247681000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>10.129513</v>
+        <v>10.129512999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1434.980000</v>
+        <v>1434.98</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.190000</v>
+        <v>-313.19</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>36477.420102</v>
+        <v>36477.420101999996</v>
       </c>
       <c r="AZ3" s="1">
         <v>10.132617</v>
       </c>
       <c r="BA3" s="1">
-        <v>1454.200000</v>
+        <v>1454.2</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.504000</v>
+        <v>-365.50400000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>36488.298001</v>
+        <v>36488.298001000003</v>
       </c>
       <c r="BE3" s="1">
         <v>10.135638</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.940000</v>
+        <v>1538.94</v>
       </c>
       <c r="BG3" s="1">
-        <v>-615.146000</v>
+        <v>-615.14599999999996</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>36499.394821</v>
+        <v>36499.394821000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>10.138721</v>
       </c>
       <c r="BK3" s="1">
-        <v>1692.480000</v>
+        <v>1692.48</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1063.590000</v>
+        <v>-1063.5899999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>36510.176358</v>
+        <v>36510.176357999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>10.141716</v>
+        <v>10.141716000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1985.910000</v>
+        <v>1985.91</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1841.880000</v>
+        <v>-1841.88</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>36521.408759</v>
+        <v>36521.408758999998</v>
       </c>
       <c r="BT3" s="1">
         <v>10.144836</v>
       </c>
       <c r="BU3" s="1">
-        <v>2369.390000</v>
+        <v>2369.39</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2742.560000</v>
+        <v>-2742.56</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>36532.766181</v>
+        <v>36532.766180999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>10.147991</v>
+        <v>10.147990999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2852.820000</v>
+        <v>2852.82</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3728.940000</v>
+        <v>-3728.94</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>36543.715376</v>
       </c>
       <c r="CD3" s="1">
-        <v>10.151032</v>
+        <v>10.151032000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4264.030000</v>
+        <v>4264.03</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6107.710000</v>
+        <v>-6107.71</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>36373.211137</v>
+        <v>36373.211136999998</v>
       </c>
       <c r="B4" s="1">
-        <v>10.103670</v>
+        <v>10.103669999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1253.280000</v>
+        <v>1253.28</v>
       </c>
       <c r="D4" s="1">
-        <v>-307.476000</v>
+        <v>-307.476</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>36383.591870</v>
+        <v>36383.591869999997</v>
       </c>
       <c r="G4" s="1">
         <v>10.106553</v>
       </c>
       <c r="H4" s="1">
-        <v>1277.320000</v>
+        <v>1277.32</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.072000</v>
+        <v>-265.072</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>36393.746465</v>
+        <v>36393.746464999997</v>
       </c>
       <c r="L4" s="1">
-        <v>10.109374</v>
+        <v>10.109374000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1312.440000</v>
+        <v>1312.44</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.022000</v>
+        <v>-203.02199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>36403.960082</v>
+        <v>36403.960081999998</v>
       </c>
       <c r="Q4" s="1">
         <v>10.112211</v>
       </c>
       <c r="R4" s="1">
-        <v>1324.460000</v>
+        <v>1324.46</v>
       </c>
       <c r="S4" s="1">
-        <v>-185.434000</v>
+        <v>-185.434</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>36414.227766</v>
+        <v>36414.227766000004</v>
       </c>
       <c r="V4" s="1">
-        <v>10.115063</v>
+        <v>10.115062999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1337.740000</v>
+        <v>1337.74</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.946000</v>
+        <v>-171.946</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>36424.414104</v>
+        <v>36424.414104000003</v>
       </c>
       <c r="AA4" s="1">
         <v>10.117893</v>
       </c>
       <c r="AB4" s="1">
-        <v>1355.170000</v>
+        <v>1355.17</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.686000</v>
+        <v>-169.68600000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>36434.855386</v>
+        <v>36434.855386000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>10.120793</v>
+        <v>10.120793000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1368.220000</v>
+        <v>1368.22</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.381000</v>
+        <v>-179.381</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>36444.763470</v>
+        <v>36444.763469999998</v>
       </c>
       <c r="AK4" s="1">
         <v>10.123545</v>
       </c>
       <c r="AL4" s="1">
-        <v>1388.880000</v>
+        <v>1388.88</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.217000</v>
+        <v>-209.21700000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>36455.388768</v>
+        <v>36455.388767999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>10.126497</v>
+        <v>10.126497000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.076000</v>
+        <v>-253.07599999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>36466.657871</v>
+        <v>36466.657871000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>10.129627</v>
+        <v>10.129626999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1434.970000</v>
+        <v>1434.97</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.224000</v>
+        <v>-313.22399999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>36477.777218</v>
+        <v>36477.777218000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>10.132716</v>
       </c>
       <c r="BA4" s="1">
-        <v>1454.220000</v>
+        <v>1454.22</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.484000</v>
+        <v>-365.48399999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>36488.936678</v>
+        <v>36488.936677999998</v>
       </c>
       <c r="BE4" s="1">
         <v>10.135816</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.930000</v>
+        <v>1538.93</v>
       </c>
       <c r="BG4" s="1">
-        <v>-615.176000</v>
+        <v>-615.17600000000004</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>36500.140835</v>
+        <v>36500.140834999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>10.138928</v>
       </c>
       <c r="BK4" s="1">
-        <v>1692.510000</v>
+        <v>1692.51</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1063.550000</v>
+        <v>-1063.55</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>36510.587046</v>
+        <v>36510.587046000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>10.141830</v>
+        <v>10.141830000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1985.750000</v>
+        <v>1985.75</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1841.930000</v>
+        <v>-1841.93</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>36521.819447</v>
+        <v>36521.819447000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>10.144950</v>
+        <v>10.14495</v>
       </c>
       <c r="BU4" s="1">
-        <v>2368.900000</v>
+        <v>2368.9</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2743.430000</v>
+        <v>-2743.43</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>36533.196680</v>
+        <v>36533.196680000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>10.148110</v>
+        <v>10.148110000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2853.320000</v>
+        <v>2853.32</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3729.240000</v>
+        <v>-3729.24</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>36544.559033</v>
+        <v>36544.559032999998</v>
       </c>
       <c r="CD4" s="1">
         <v>10.151266</v>
       </c>
       <c r="CE4" s="1">
-        <v>4284.700000</v>
+        <v>4284.7</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6115.390000</v>
+        <v>-6115.39</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>36373.555322</v>
       </c>
       <c r="B5" s="1">
-        <v>10.103765</v>
+        <v>10.103764999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1253.390000</v>
+        <v>1253.3900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-307.556000</v>
+        <v>-307.55599999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>36383.934145</v>
+        <v>36383.934144999999</v>
       </c>
       <c r="G5" s="1">
         <v>10.106648</v>
       </c>
       <c r="H5" s="1">
-        <v>1277.710000</v>
+        <v>1277.71</v>
       </c>
       <c r="I5" s="1">
-        <v>-264.778000</v>
+        <v>-264.77800000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>36394.090689</v>
+        <v>36394.090688999997</v>
       </c>
       <c r="L5" s="1">
-        <v>10.109470</v>
+        <v>10.10947</v>
       </c>
       <c r="M5" s="1">
-        <v>1312.590000</v>
+        <v>1312.59</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.410000</v>
+        <v>-203.41</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>36404.373745</v>
+        <v>36404.373744999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>10.112326</v>
+        <v>10.112325999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1324.460000</v>
+        <v>1324.46</v>
       </c>
       <c r="S5" s="1">
-        <v>-185.423000</v>
+        <v>-185.423</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>36414.649861</v>
+        <v>36414.649860999998</v>
       </c>
       <c r="V5" s="1">
         <v>10.115181</v>
       </c>
       <c r="W5" s="1">
-        <v>1337.730000</v>
+        <v>1337.73</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.896000</v>
+        <v>-171.89599999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>36424.715215</v>
+        <v>36424.715214999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>10.117976</v>
+        <v>10.117976000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1355.250000</v>
+        <v>1355.25</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.841000</v>
+        <v>-169.84100000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>36434.986846</v>
       </c>
       <c r="AF5" s="1">
-        <v>10.120830</v>
+        <v>10.12083</v>
       </c>
       <c r="AG5" s="1">
-        <v>1368.230000</v>
+        <v>1368.23</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.455000</v>
+        <v>-179.45500000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>36445.113644</v>
+        <v>36445.113643999997</v>
       </c>
       <c r="AK5" s="1">
         <v>10.123643</v>
       </c>
       <c r="AL5" s="1">
-        <v>1388.860000</v>
+        <v>1388.86</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.223000</v>
+        <v>-209.22300000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>36455.748897</v>
+        <v>36455.748896999998</v>
       </c>
       <c r="AP5" s="1">
         <v>10.126597</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.030000</v>
+        <v>-253.03</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>36467.022927</v>
+        <v>36467.022926999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>10.129729</v>
+        <v>10.129728999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1434.990000</v>
+        <v>1434.99</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.198000</v>
+        <v>-313.19799999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>36478.492431</v>
+        <v>36478.492430999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>10.132915</v>
+        <v>10.132915000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1454.220000</v>
+        <v>1454.22</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.485000</v>
+        <v>-365.48500000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>36489.410355</v>
@@ -1417,120 +1833,120 @@
         <v>10.135947</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.950000</v>
+        <v>1538.95</v>
       </c>
       <c r="BG5" s="1">
-        <v>-615.133000</v>
+        <v>-615.13300000000004</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>36500.518260</v>
+        <v>36500.518259999997</v>
       </c>
       <c r="BJ5" s="1">
         <v>10.139033</v>
       </c>
       <c r="BK5" s="1">
-        <v>1692.520000</v>
+        <v>1692.52</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1063.540000</v>
+        <v>-1063.54</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>36510.982357</v>
+        <v>36510.982357000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>10.141940</v>
+        <v>10.14194</v>
       </c>
       <c r="BP5" s="1">
-        <v>1985.610000</v>
+        <v>1985.61</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1841.910000</v>
+        <v>-1841.91</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>36522.254971</v>
+        <v>36522.254971000002</v>
       </c>
       <c r="BT5" s="1">
         <v>10.145071</v>
       </c>
       <c r="BU5" s="1">
-        <v>2369.010000</v>
+        <v>2369.0100000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2744.130000</v>
+        <v>-2744.13</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>36533.934230</v>
+        <v>36533.934229999999</v>
       </c>
       <c r="BY5" s="1">
         <v>10.148315</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2852.970000</v>
+        <v>2852.97</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3728.680000</v>
+        <v>-3728.68</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>36544.792839</v>
+        <v>36544.792839000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>10.151331</v>
+        <v>10.151331000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4281.250000</v>
+        <v>4281.25</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6110.640000</v>
+        <v>-6110.64</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>36373.899050</v>
+        <v>36373.89905</v>
       </c>
       <c r="B6" s="1">
         <v>10.103861</v>
       </c>
       <c r="C6" s="1">
-        <v>1253.060000</v>
+        <v>1253.06</v>
       </c>
       <c r="D6" s="1">
-        <v>-307.254000</v>
+        <v>-307.25400000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>36384.349758</v>
+        <v>36384.349757999997</v>
       </c>
       <c r="G6" s="1">
         <v>10.106764</v>
       </c>
       <c r="H6" s="1">
-        <v>1277.170000</v>
+        <v>1277.17</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.690000</v>
+        <v>-264.69</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>36394.508318</v>
@@ -1539,148 +1955,148 @@
         <v>10.109586</v>
       </c>
       <c r="M6" s="1">
-        <v>1312.680000</v>
+        <v>1312.68</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.421000</v>
+        <v>-203.42099999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>36404.672187</v>
+        <v>36404.672186999996</v>
       </c>
       <c r="Q6" s="1">
         <v>10.112409</v>
       </c>
       <c r="R6" s="1">
-        <v>1324.440000</v>
+        <v>1324.44</v>
       </c>
       <c r="S6" s="1">
-        <v>-185.309000</v>
+        <v>-185.309</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>36414.928149</v>
+        <v>36414.928148999999</v>
       </c>
       <c r="V6" s="1">
-        <v>10.115258</v>
+        <v>10.115258000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1337.750000</v>
+        <v>1337.75</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.971000</v>
+        <v>-171.971</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>36425.066375</v>
+        <v>36425.066375000002</v>
       </c>
       <c r="AA6" s="1">
         <v>10.118074</v>
       </c>
       <c r="AB6" s="1">
-        <v>1355.290000</v>
+        <v>1355.29</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.617000</v>
+        <v>-169.61699999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>36435.328570</v>
+        <v>36435.328569999998</v>
       </c>
       <c r="AF6" s="1">
         <v>10.120925</v>
       </c>
       <c r="AG6" s="1">
-        <v>1368.210000</v>
+        <v>1368.21</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.395000</v>
+        <v>-179.39500000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>36445.460348</v>
+        <v>36445.460348000001</v>
       </c>
       <c r="AK6" s="1">
         <v>10.123739</v>
       </c>
       <c r="AL6" s="1">
-        <v>1388.860000</v>
+        <v>1388.86</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.215000</v>
+        <v>-209.215</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>36456.470542</v>
+        <v>36456.470542000003</v>
       </c>
       <c r="AP6" s="1">
         <v>10.126797</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1410.550000</v>
+        <v>1410.55</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.127000</v>
+        <v>-253.12700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>36467.753040</v>
+        <v>36467.753040000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>10.129931</v>
+        <v>10.129930999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1434.990000</v>
+        <v>1434.99</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.189000</v>
+        <v>-313.18900000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>36478.852543</v>
+        <v>36478.852543000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>10.133015</v>
       </c>
       <c r="BA6" s="1">
-        <v>1454.210000</v>
+        <v>1454.21</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.473000</v>
+        <v>-365.47300000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>36489.769458</v>
+        <v>36489.769458000002</v>
       </c>
       <c r="BE6" s="1">
         <v>10.136047</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.920000</v>
+        <v>1538.92</v>
       </c>
       <c r="BG6" s="1">
-        <v>-615.128000</v>
+        <v>-615.12800000000004</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>36500.892773</v>
@@ -1689,105 +2105,105 @@
         <v>10.139137</v>
       </c>
       <c r="BK6" s="1">
-        <v>1692.530000</v>
+        <v>1692.53</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1063.540000</v>
+        <v>-1063.54</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>36511.719450</v>
+        <v>36511.719449999997</v>
       </c>
       <c r="BO6" s="1">
         <v>10.142144</v>
       </c>
       <c r="BP6" s="1">
-        <v>1985.700000</v>
+        <v>1985.7</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1842.040000</v>
+        <v>-1842.04</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>36523.069401</v>
+        <v>36523.069401000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>10.145297</v>
+        <v>10.145296999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2369.570000</v>
+        <v>2369.5700000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2744.750000</v>
+        <v>-2744.75</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>36534.071126</v>
+        <v>36534.071126000003</v>
       </c>
       <c r="BY6" s="1">
         <v>10.148353</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2853.310000</v>
+        <v>2853.31</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3728.420000</v>
+        <v>-3728.42</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>36545.312457</v>
       </c>
       <c r="CD6" s="1">
-        <v>10.151476</v>
+        <v>10.151476000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4264.790000</v>
+        <v>4264.79</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6110.300000</v>
+        <v>-6110.3</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>36374.330570</v>
+        <v>36374.330569999998</v>
       </c>
       <c r="B7" s="1">
-        <v>10.103981</v>
+        <v>10.103980999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1253.330000</v>
+        <v>1253.33</v>
       </c>
       <c r="D7" s="1">
-        <v>-307.072000</v>
+        <v>-307.072</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>36384.647356</v>
+        <v>36384.647356000001</v>
       </c>
       <c r="G7" s="1">
-        <v>10.106846</v>
+        <v>10.106846000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1277.300000</v>
+        <v>1277.3</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.333000</v>
+        <v>-265.33300000000003</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>36394.801454</v>
@@ -1796,662 +2212,662 @@
         <v>10.109667</v>
       </c>
       <c r="M7" s="1">
-        <v>1312.840000</v>
+        <v>1312.84</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.254000</v>
+        <v>-203.25399999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>36405.022017</v>
+        <v>36405.022017000003</v>
       </c>
       <c r="Q7" s="1">
         <v>10.112506</v>
       </c>
       <c r="R7" s="1">
-        <v>1324.470000</v>
+        <v>1324.47</v>
       </c>
       <c r="S7" s="1">
-        <v>-185.255000</v>
+        <v>-185.255</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>36415.274821</v>
+        <v>36415.274820999999</v>
       </c>
       <c r="V7" s="1">
         <v>10.115354</v>
       </c>
       <c r="W7" s="1">
-        <v>1337.780000</v>
+        <v>1337.78</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.974000</v>
+        <v>-171.97399999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>36425.413046</v>
+        <v>36425.413046000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>10.118170</v>
+        <v>10.118169999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1355.150000</v>
+        <v>1355.15</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.745000</v>
+        <v>-169.745</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>36436.015566</v>
+        <v>36436.015566000002</v>
       </c>
       <c r="AF7" s="1">
         <v>10.121115</v>
       </c>
       <c r="AG7" s="1">
-        <v>1368.250000</v>
+        <v>1368.25</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.352000</v>
+        <v>-179.352</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>36446.159212</v>
+        <v>36446.159211999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.123933</v>
+        <v>10.123932999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1388.900000</v>
+        <v>1388.9</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.209000</v>
+        <v>-209.209</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>36456.858941</v>
+        <v>36456.858940999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>10.126905</v>
+        <v>10.126905000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.049000</v>
+        <v>-253.04900000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>36468.142430</v>
+        <v>36468.14243</v>
       </c>
       <c r="AU7" s="1">
-        <v>10.130040</v>
+        <v>10.130039999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1434.970000</v>
+        <v>1434.97</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.220000</v>
+        <v>-313.22000000000003</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>36479.211616</v>
+        <v>36479.211616000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>10.133114</v>
+        <v>10.133114000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1454.210000</v>
+        <v>1454.21</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.513000</v>
+        <v>-365.51299999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>36490.445505</v>
+        <v>36490.445505000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>10.136235</v>
+        <v>10.136234999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.910000</v>
+        <v>1538.91</v>
       </c>
       <c r="BG7" s="1">
-        <v>-615.164000</v>
+        <v>-615.16399999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>36501.569811</v>
+        <v>36501.569811000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.139325</v>
+        <v>10.139324999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1692.490000</v>
+        <v>1692.49</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1063.560000</v>
+        <v>-1063.56</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>36511.828035</v>
+        <v>36511.828034999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>10.142174</v>
+        <v>10.142174000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1985.660000</v>
+        <v>1985.66</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1841.910000</v>
+        <v>-1841.91</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>36523.507332</v>
+        <v>36523.507332000001</v>
       </c>
       <c r="BT7" s="1">
         <v>10.145419</v>
       </c>
       <c r="BU7" s="1">
-        <v>2370.070000</v>
+        <v>2370.0700000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2745.110000</v>
+        <v>-2745.11</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>36534.496726</v>
+        <v>36534.496725999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>10.148471</v>
+        <v>10.148471000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2852.400000</v>
+        <v>2852.4</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3728.630000</v>
+        <v>-3728.63</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>36545.830807</v>
+        <v>36545.830806999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.151620</v>
+        <v>10.151619999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4266.870000</v>
+        <v>4266.87</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6111.100000</v>
+        <v>-6111.1</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>36374.600889</v>
+        <v>36374.600889000001</v>
       </c>
       <c r="B8" s="1">
         <v>10.104056</v>
       </c>
       <c r="C8" s="1">
-        <v>1252.950000</v>
+        <v>1252.95</v>
       </c>
       <c r="D8" s="1">
-        <v>-306.924000</v>
+        <v>-306.92399999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>36384.992571</v>
+        <v>36384.992571000002</v>
       </c>
       <c r="G8" s="1">
         <v>10.106942</v>
       </c>
       <c r="H8" s="1">
-        <v>1278.000000</v>
+        <v>1278</v>
       </c>
       <c r="I8" s="1">
-        <v>-264.821000</v>
+        <v>-264.82100000000003</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>36395.147662</v>
+        <v>36395.147662000003</v>
       </c>
       <c r="L8" s="1">
-        <v>10.109763</v>
+        <v>10.109762999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1312.790000</v>
+        <v>1312.79</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.610000</v>
+        <v>-203.61</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>36405.372192</v>
+        <v>36405.372192000003</v>
       </c>
       <c r="Q8" s="1">
         <v>10.112603</v>
       </c>
       <c r="R8" s="1">
-        <v>1324.520000</v>
+        <v>1324.52</v>
       </c>
       <c r="S8" s="1">
-        <v>-185.386000</v>
+        <v>-185.386</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>36415.614611</v>
+        <v>36415.614610999997</v>
       </c>
       <c r="V8" s="1">
         <v>10.115449</v>
       </c>
       <c r="W8" s="1">
-        <v>1337.870000</v>
+        <v>1337.87</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.832000</v>
+        <v>-171.83199999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>36426.110917</v>
+        <v>36426.110916999998</v>
       </c>
       <c r="AA8" s="1">
         <v>10.118364</v>
       </c>
       <c r="AB8" s="1">
-        <v>1355.120000</v>
+        <v>1355.12</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.779000</v>
+        <v>-169.779</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>36436.358787</v>
+        <v>36436.358786999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>10.121211</v>
+        <v>10.121211000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1368.230000</v>
+        <v>1368.23</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.393000</v>
+        <v>-179.393</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>36446.507925</v>
+        <v>36446.507924999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.124030</v>
+        <v>10.124029999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1388.900000</v>
+        <v>1388.9</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.217000</v>
+        <v>-209.21700000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>36457.221515</v>
+        <v>36457.221514999997</v>
       </c>
       <c r="AP8" s="1">
         <v>10.127006</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.062000</v>
+        <v>-253.06200000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>36468.507485</v>
+        <v>36468.507485000002</v>
       </c>
       <c r="AU8" s="1">
         <v>10.130141</v>
       </c>
       <c r="AV8" s="1">
-        <v>1434.960000</v>
+        <v>1434.96</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.221000</v>
+        <v>-313.221</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>36479.886670</v>
+        <v>36479.88667</v>
       </c>
       <c r="AZ8" s="1">
         <v>10.133302</v>
       </c>
       <c r="BA8" s="1">
-        <v>1454.170000</v>
+        <v>1454.17</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.475000</v>
+        <v>-365.47500000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>36490.882015</v>
+        <v>36490.882015000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>10.136356</v>
+        <v>10.136355999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.920000</v>
+        <v>1538.92</v>
       </c>
       <c r="BG8" s="1">
-        <v>-615.133000</v>
+        <v>-615.13300000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>36501.678928</v>
+        <v>36501.678928000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>10.139355</v>
       </c>
       <c r="BK8" s="1">
-        <v>1692.510000</v>
+        <v>1692.51</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1063.590000</v>
+        <v>-1063.5899999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>36512.221859</v>
+        <v>36512.221858999997</v>
       </c>
       <c r="BO8" s="1">
         <v>10.142284</v>
       </c>
       <c r="BP8" s="1">
-        <v>1985.550000</v>
+        <v>1985.55</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1841.900000</v>
+        <v>-1841.9</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>36523.935875</v>
+        <v>36523.935875000003</v>
       </c>
       <c r="BT8" s="1">
         <v>10.145538</v>
       </c>
       <c r="BU8" s="1">
-        <v>2370.500000</v>
+        <v>2370.5</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2745.040000</v>
+        <v>-2745.04</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>36534.913334</v>
+        <v>36534.913333999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>10.148587</v>
+        <v>10.148586999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2852.580000</v>
+        <v>2852.58</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3729.390000</v>
+        <v>-3729.39</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>36546.381830</v>
+        <v>36546.381829999998</v>
       </c>
       <c r="CD8" s="1">
         <v>10.151773</v>
       </c>
       <c r="CE8" s="1">
-        <v>4277.480000</v>
+        <v>4277.4799999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6107.780000</v>
+        <v>-6107.78</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>36374.944152</v>
+        <v>36374.944151999996</v>
       </c>
       <c r="B9" s="1">
         <v>10.104151</v>
       </c>
       <c r="C9" s="1">
-        <v>1252.680000</v>
+        <v>1252.68</v>
       </c>
       <c r="D9" s="1">
-        <v>-307.666000</v>
+        <v>-307.666</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>36385.335803</v>
+        <v>36385.335803000002</v>
       </c>
       <c r="G9" s="1">
-        <v>10.107038</v>
+        <v>10.107037999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1277.780000</v>
+        <v>1277.78</v>
       </c>
       <c r="I9" s="1">
-        <v>-265.398000</v>
+        <v>-265.39800000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>36395.492383</v>
+        <v>36395.492382999997</v>
       </c>
       <c r="L9" s="1">
         <v>10.109859</v>
       </c>
       <c r="M9" s="1">
-        <v>1312.230000</v>
+        <v>1312.23</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.242000</v>
+        <v>-203.24199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>36406.066629</v>
+        <v>36406.066629000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>10.112796</v>
+        <v>10.112795999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1324.530000</v>
+        <v>1324.53</v>
       </c>
       <c r="S9" s="1">
-        <v>-185.474000</v>
+        <v>-185.47399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>36416.304342</v>
+        <v>36416.304342000003</v>
       </c>
       <c r="V9" s="1">
-        <v>10.115640</v>
+        <v>10.115640000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1337.800000</v>
+        <v>1337.8</v>
       </c>
       <c r="X9" s="1">
-        <v>-172.065000</v>
+        <v>-172.065</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>36426.460597</v>
+        <v>36426.460596999998</v>
       </c>
       <c r="AA9" s="1">
         <v>10.118461</v>
       </c>
       <c r="AB9" s="1">
-        <v>1355.120000</v>
+        <v>1355.12</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.868000</v>
+        <v>-169.86799999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>36436.702632</v>
       </c>
       <c r="AF9" s="1">
-        <v>10.121306</v>
+        <v>10.121306000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1368.240000</v>
+        <v>1368.24</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.285000</v>
+        <v>-179.285</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>36446.857081</v>
+        <v>36446.857081000002</v>
       </c>
       <c r="AK9" s="1">
         <v>10.124127</v>
       </c>
       <c r="AL9" s="1">
-        <v>1388.890000</v>
+        <v>1388.89</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.201000</v>
+        <v>-209.20099999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>36457.890588</v>
+        <v>36457.890588000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>10.127192</v>
+        <v>10.127192000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.070000</v>
+        <v>-253.07</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>36469.189948</v>
+        <v>36469.189947999999</v>
       </c>
       <c r="AU9" s="1">
         <v>10.130331</v>
       </c>
       <c r="AV9" s="1">
-        <v>1434.990000</v>
+        <v>1434.99</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.216000</v>
+        <v>-313.21600000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>36480.320173</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.133422</v>
+        <v>10.133421999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1454.180000</v>
+        <v>1454.18</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.460000</v>
+        <v>-365.46</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>36491.242115</v>
+        <v>36491.242115000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>10.136456</v>
+        <v>10.136456000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.910000</v>
+        <v>1538.91</v>
       </c>
       <c r="BG9" s="1">
-        <v>-615.106000</v>
+        <v>-615.10599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>36502.053409</v>
@@ -2460,90 +2876,90 @@
         <v>10.139459</v>
       </c>
       <c r="BK9" s="1">
-        <v>1692.490000</v>
+        <v>1692.49</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1063.570000</v>
+        <v>-1063.57</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>36512.643954</v>
+        <v>36512.643953999999</v>
       </c>
       <c r="BO9" s="1">
         <v>10.142401</v>
       </c>
       <c r="BP9" s="1">
-        <v>1985.460000</v>
+        <v>1985.46</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1841.870000</v>
+        <v>-1841.87</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>36524.349539</v>
+        <v>36524.349539000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>10.145653</v>
+        <v>10.145652999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2371.190000</v>
+        <v>2371.19</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2745.450000</v>
+        <v>-2745.45</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>36535.361260</v>
+        <v>36535.361259999998</v>
       </c>
       <c r="BY9" s="1">
         <v>10.148711</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2853.230000</v>
+        <v>2853.23</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3729.610000</v>
+        <v>-3729.61</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>36546.911589</v>
+        <v>36546.911589000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>10.151920</v>
+        <v>10.15192</v>
       </c>
       <c r="CE9" s="1">
-        <v>4261.920000</v>
+        <v>4261.92</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6113.450000</v>
+        <v>-6113.45</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>36375.283385</v>
+        <v>36375.283385000002</v>
       </c>
       <c r="B10" s="1">
-        <v>10.104245</v>
+        <v>10.104245000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1253.030000</v>
+        <v>1253.03</v>
       </c>
       <c r="D10" s="1">
-        <v>-307.225000</v>
+        <v>-307.22500000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>36386.023813</v>
@@ -2552,28 +2968,28 @@
         <v>10.107229</v>
       </c>
       <c r="H10" s="1">
-        <v>1277.680000</v>
+        <v>1277.68</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.984000</v>
+        <v>-264.98399999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>36396.182844</v>
+        <v>36396.182844000003</v>
       </c>
       <c r="L10" s="1">
         <v>10.110051</v>
       </c>
       <c r="M10" s="1">
-        <v>1312.650000</v>
+        <v>1312.65</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.922000</v>
+        <v>-202.922</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>36406.415321</v>
@@ -2582,28 +2998,28 @@
         <v>10.112893</v>
       </c>
       <c r="R10" s="1">
-        <v>1324.470000</v>
+        <v>1324.47</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.525000</v>
+        <v>-185.52500000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>36416.648278</v>
+        <v>36416.648278000001</v>
       </c>
       <c r="V10" s="1">
         <v>10.115736</v>
       </c>
       <c r="W10" s="1">
-        <v>1337.770000</v>
+        <v>1337.77</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.890000</v>
+        <v>-171.89</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>36426.808824</v>
@@ -2612,28 +3028,28 @@
         <v>10.118558</v>
       </c>
       <c r="AB10" s="1">
-        <v>1355.130000</v>
+        <v>1355.13</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.629000</v>
+        <v>-169.62899999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>36437.350294</v>
+        <v>36437.350294000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>10.121486</v>
+        <v>10.121486000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1368.220000</v>
+        <v>1368.22</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.342000</v>
+        <v>-179.34200000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>36447.512337</v>
@@ -2642,315 +3058,315 @@
         <v>10.124309</v>
       </c>
       <c r="AL10" s="1">
-        <v>1388.900000</v>
+        <v>1388.9</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.215000</v>
+        <v>-209.215</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>36458.333046</v>
       </c>
       <c r="AP10" s="1">
-        <v>10.127315</v>
+        <v>10.127314999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.074000</v>
+        <v>-253.07400000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>36469.636845</v>
+        <v>36469.636845000001</v>
       </c>
       <c r="AU10" s="1">
         <v>10.130455</v>
       </c>
       <c r="AV10" s="1">
-        <v>1434.970000</v>
+        <v>1434.97</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.201000</v>
+        <v>-313.20100000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>36480.678285</v>
+        <v>36480.678285000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.133522</v>
+        <v>10.133521999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1454.210000</v>
+        <v>1454.21</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.510000</v>
+        <v>-365.51</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>36491.602704</v>
+        <v>36491.602703999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>10.136556</v>
+        <v>10.136556000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.950000</v>
+        <v>1538.95</v>
       </c>
       <c r="BG10" s="1">
-        <v>-615.100000</v>
+        <v>-615.1</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>36502.428856</v>
+        <v>36502.428855999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>10.139564</v>
       </c>
       <c r="BK10" s="1">
-        <v>1692.590000</v>
+        <v>1692.59</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1063.620000</v>
+        <v>-1063.6199999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>36513.060594</v>
+        <v>36513.060594000002</v>
       </c>
       <c r="BO10" s="1">
         <v>10.142517</v>
       </c>
       <c r="BP10" s="1">
-        <v>1985.500000</v>
+        <v>1985.5</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1842.010000</v>
+        <v>-1842.01</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>36524.764196</v>
+        <v>36524.764195999996</v>
       </c>
       <c r="BT10" s="1">
         <v>10.145768</v>
       </c>
       <c r="BU10" s="1">
-        <v>2371.690000</v>
+        <v>2371.69</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2745.290000</v>
+        <v>-2745.29</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>36535.782358</v>
+        <v>36535.782357999997</v>
       </c>
       <c r="BY10" s="1">
         <v>10.148828</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2853.330000</v>
+        <v>2853.33</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3728.900000</v>
+        <v>-3728.9</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>36547.429878</v>
+        <v>36547.429878000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>10.152064</v>
+        <v>10.152063999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4269.690000</v>
+        <v>4269.6899999999996</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6126.670000</v>
+        <v>-6126.67</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>36375.970380</v>
+        <v>36375.970379999999</v>
       </c>
       <c r="B11" s="1">
         <v>10.104436</v>
       </c>
       <c r="C11" s="1">
-        <v>1253.120000</v>
+        <v>1253.1199999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-307.024000</v>
+        <v>-307.024</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>36386.368009</v>
+        <v>36386.368008999998</v>
       </c>
       <c r="G11" s="1">
         <v>10.107324</v>
       </c>
       <c r="H11" s="1">
-        <v>1277.850000</v>
+        <v>1277.8499999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-265.765000</v>
+        <v>-265.76499999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>36396.528555</v>
+        <v>36396.528554999997</v>
       </c>
       <c r="L11" s="1">
         <v>10.110147</v>
       </c>
       <c r="M11" s="1">
-        <v>1312.430000</v>
+        <v>1312.43</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.900000</v>
+        <v>-202.9</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>36406.764958</v>
       </c>
       <c r="Q11" s="1">
-        <v>10.112990</v>
+        <v>10.11299</v>
       </c>
       <c r="R11" s="1">
-        <v>1324.410000</v>
+        <v>1324.41</v>
       </c>
       <c r="S11" s="1">
-        <v>-185.336000</v>
+        <v>-185.33600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>36416.990482</v>
+        <v>36416.990482000001</v>
       </c>
       <c r="V11" s="1">
         <v>10.115831</v>
       </c>
       <c r="W11" s="1">
-        <v>1337.790000</v>
+        <v>1337.79</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.896000</v>
+        <v>-171.89599999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>36427.460036</v>
+        <v>36427.460035999997</v>
       </c>
       <c r="AA11" s="1">
         <v>10.118739</v>
       </c>
       <c r="AB11" s="1">
-        <v>1355.160000</v>
+        <v>1355.16</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.735000</v>
+        <v>-169.73500000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>36437.734167</v>
+        <v>36437.734167000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>10.121593</v>
+        <v>10.121593000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1368.210000</v>
+        <v>1368.21</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.378000</v>
+        <v>-179.37799999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>36447.902153</v>
+        <v>36447.902153000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.124417</v>
+        <v>10.124416999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1388.900000</v>
+        <v>1388.9</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.185000</v>
+        <v>-209.185</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>36458.694602</v>
+        <v>36458.694602000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>10.127415</v>
+        <v>10.127414999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.080000</v>
+        <v>-253.08</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>36470.002396</v>
+        <v>36470.002396000004</v>
       </c>
       <c r="AU11" s="1">
         <v>10.130556</v>
       </c>
       <c r="AV11" s="1">
-        <v>1435.000000</v>
+        <v>1435</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.217000</v>
+        <v>-313.21699999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>36481.036893</v>
+        <v>36481.036892999997</v>
       </c>
       <c r="AZ11" s="1">
         <v>10.133621</v>
       </c>
       <c r="BA11" s="1">
-        <v>1454.200000</v>
+        <v>1454.2</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.465000</v>
+        <v>-365.46499999999997</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>36492.028734</v>
@@ -2959,679 +3375,679 @@
         <v>10.136675</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.920000</v>
+        <v>1538.92</v>
       </c>
       <c r="BG11" s="1">
-        <v>-615.151000</v>
+        <v>-615.15099999999995</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>36502.844001</v>
+        <v>36502.844000999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>10.139679</v>
+        <v>10.139678999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1692.530000</v>
+        <v>1692.53</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1063.620000</v>
+        <v>-1063.6199999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>36513.466358</v>
+        <v>36513.466357999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>10.142630</v>
+        <v>10.14263</v>
       </c>
       <c r="BP11" s="1">
-        <v>1985.590000</v>
+        <v>1985.59</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1841.890000</v>
+        <v>-1841.89</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>36525.178884</v>
+        <v>36525.178884000001</v>
       </c>
       <c r="BT11" s="1">
         <v>10.145883</v>
       </c>
       <c r="BU11" s="1">
-        <v>2372.290000</v>
+        <v>2372.29</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2745.100000</v>
+        <v>-2745.1</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>36536.205411</v>
+        <v>36536.205411000003</v>
       </c>
       <c r="BY11" s="1">
         <v>10.148946</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2853.440000</v>
+        <v>2853.44</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3728.670000</v>
+        <v>-3728.67</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>36547.949684</v>
+        <v>36547.949683999999</v>
       </c>
       <c r="CD11" s="1">
         <v>10.152208</v>
       </c>
       <c r="CE11" s="1">
-        <v>4280.480000</v>
+        <v>4280.4799999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6116.160000</v>
+        <v>-6116.16</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>36376.312582</v>
+        <v>36376.312581999999</v>
       </c>
       <c r="B12" s="1">
         <v>10.104531</v>
       </c>
       <c r="C12" s="1">
-        <v>1253.340000</v>
+        <v>1253.3399999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-307.303000</v>
+        <v>-307.303</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>36386.711241</v>
+        <v>36386.711240999997</v>
       </c>
       <c r="G12" s="1">
-        <v>10.107420</v>
+        <v>10.107419999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1278.070000</v>
+        <v>1278.07</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.267000</v>
+        <v>-265.267</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>36396.876747</v>
+        <v>36396.876747000002</v>
       </c>
       <c r="L12" s="1">
         <v>10.110244</v>
       </c>
       <c r="M12" s="1">
-        <v>1312.340000</v>
+        <v>1312.34</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.994000</v>
+        <v>-202.994</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>36407.419713</v>
+        <v>36407.419713000003</v>
       </c>
       <c r="Q12" s="1">
         <v>10.113172</v>
       </c>
       <c r="R12" s="1">
-        <v>1324.490000</v>
+        <v>1324.49</v>
       </c>
       <c r="S12" s="1">
-        <v>-185.430000</v>
+        <v>-185.43</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>36417.602086</v>
+        <v>36417.602085999999</v>
       </c>
       <c r="V12" s="1">
-        <v>10.116001</v>
+        <v>10.116001000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1337.740000</v>
+        <v>1337.74</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.968000</v>
+        <v>-171.96799999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>36427.852382</v>
+        <v>36427.852381999997</v>
       </c>
       <c r="AA12" s="1">
         <v>10.118848</v>
       </c>
       <c r="AB12" s="1">
-        <v>1355.200000</v>
+        <v>1355.2</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.815000</v>
+        <v>-169.815</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>36438.077893</v>
+        <v>36438.077893000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>10.121688</v>
+        <v>10.121688000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1368.230000</v>
+        <v>1368.23</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.375000</v>
+        <v>-179.375</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>36448.248856</v>
+        <v>36448.248855999998</v>
       </c>
       <c r="AK12" s="1">
         <v>10.124514</v>
       </c>
       <c r="AL12" s="1">
-        <v>1388.860000</v>
+        <v>1388.86</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.225000</v>
+        <v>-209.22499999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>36459.054697</v>
       </c>
       <c r="AP12" s="1">
-        <v>10.127515</v>
+        <v>10.127515000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1410.540000</v>
+        <v>1410.54</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.086000</v>
+        <v>-253.08600000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>36470.363484</v>
+        <v>36470.363484000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>10.130657</v>
+        <v>10.130656999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1434.980000</v>
+        <v>1434.98</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.182000</v>
+        <v>-313.18200000000002</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>36481.466925</v>
+        <v>36481.466925000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>10.133741</v>
+        <v>10.133741000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1454.170000</v>
+        <v>1454.17</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.511000</v>
+        <v>-365.51100000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>36492.329310</v>
+        <v>36492.329310000001</v>
       </c>
       <c r="BE12" s="1">
         <v>10.136758</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.930000</v>
+        <v>1538.93</v>
       </c>
       <c r="BG12" s="1">
-        <v>-615.127000</v>
+        <v>-615.12699999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>36503.178799</v>
+        <v>36503.178799000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>10.139772</v>
+        <v>10.139772000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1692.430000</v>
+        <v>1692.43</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1063.520000</v>
+        <v>-1063.52</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>36513.861633</v>
       </c>
       <c r="BO12" s="1">
-        <v>10.142739</v>
+        <v>10.142739000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1985.680000</v>
+        <v>1985.68</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1841.840000</v>
+        <v>-1841.84</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>36525.589571</v>
+        <v>36525.589570999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>10.145997</v>
+        <v>10.145996999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2372.370000</v>
+        <v>2372.37</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2744.560000</v>
+        <v>-2744.56</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>36536.653796</v>
+        <v>36536.653795999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>10.149070</v>
+        <v>10.14907</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2852.800000</v>
+        <v>2852.8</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3728.820000</v>
+        <v>-3728.82</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>36548.467011</v>
+        <v>36548.467011000001</v>
       </c>
       <c r="CD12" s="1">
         <v>10.152352</v>
       </c>
       <c r="CE12" s="1">
-        <v>4282.560000</v>
+        <v>4282.5600000000004</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6122.240000</v>
+        <v>-6122.24</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>36376.653336</v>
+        <v>36376.653336000003</v>
       </c>
       <c r="B13" s="1">
         <v>10.104626</v>
       </c>
       <c r="C13" s="1">
-        <v>1253.290000</v>
+        <v>1253.29</v>
       </c>
       <c r="D13" s="1">
-        <v>-307.151000</v>
+        <v>-307.15100000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>36387.363450</v>
+        <v>36387.363449999997</v>
       </c>
       <c r="G13" s="1">
-        <v>10.107601</v>
+        <v>10.107601000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1278.730000</v>
+        <v>1278.73</v>
       </c>
       <c r="I13" s="1">
-        <v>-265.469000</v>
+        <v>-265.46899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>36397.524490</v>
+        <v>36397.524490000003</v>
       </c>
       <c r="L13" s="1">
-        <v>10.110423</v>
+        <v>10.110423000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1312.740000</v>
+        <v>1312.74</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.339000</v>
+        <v>-203.339</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>36407.810526</v>
+        <v>36407.810526000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>10.113281</v>
+        <v>10.113281000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1324.570000</v>
+        <v>1324.57</v>
       </c>
       <c r="S13" s="1">
-        <v>-185.431000</v>
+        <v>-185.43100000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>36418.023648</v>
+        <v>36418.023648000002</v>
       </c>
       <c r="V13" s="1">
         <v>10.116118</v>
       </c>
       <c r="W13" s="1">
-        <v>1337.680000</v>
+        <v>1337.68</v>
       </c>
       <c r="X13" s="1">
-        <v>-172.017000</v>
+        <v>-172.017</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>36428.205523</v>
+        <v>36428.205522999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>10.118946</v>
+        <v>10.118945999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1355.150000</v>
+        <v>1355.15</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.742000</v>
+        <v>-169.74199999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>36438.421620</v>
+        <v>36438.421620000001</v>
       </c>
       <c r="AF13" s="1">
         <v>10.121784</v>
       </c>
       <c r="AG13" s="1">
-        <v>1368.220000</v>
+        <v>1368.22</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.372000</v>
+        <v>-179.37200000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>36448.597084</v>
+        <v>36448.597084000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>10.124610</v>
+        <v>10.124610000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1388.900000</v>
+        <v>1388.9</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.224000</v>
+        <v>-209.22399999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>36459.472857</v>
+        <v>36459.472857000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>10.127631</v>
+        <v>10.127630999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1410.550000</v>
+        <v>1410.55</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.064000</v>
+        <v>-253.06399999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>36470.866953</v>
+        <v>36470.866952999997</v>
       </c>
       <c r="AU13" s="1">
         <v>10.130796</v>
       </c>
       <c r="AV13" s="1">
-        <v>1434.980000</v>
+        <v>1434.98</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.196000</v>
+        <v>-313.19600000000003</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>36481.755101</v>
+        <v>36481.755101000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>10.133821</v>
+        <v>10.133820999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1454.190000</v>
+        <v>1454.19</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.496000</v>
+        <v>-365.49599999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>36492.688930</v>
+        <v>36492.688929999997</v>
       </c>
       <c r="BE13" s="1">
         <v>10.136858</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.940000</v>
+        <v>1538.94</v>
       </c>
       <c r="BG13" s="1">
-        <v>-615.124000</v>
+        <v>-615.12400000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>36503.562705</v>
+        <v>36503.562704999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>10.139879</v>
+        <v>10.139879000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1692.500000</v>
+        <v>1692.5</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1063.560000</v>
+        <v>-1063.56</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>36514.283756</v>
+        <v>36514.283755999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>10.142857</v>
+        <v>10.142856999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1985.480000</v>
+        <v>1985.48</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1842.000000</v>
+        <v>-1842</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>36526.007665</v>
+        <v>36526.007664999997</v>
       </c>
       <c r="BT13" s="1">
         <v>10.146113</v>
       </c>
       <c r="BU13" s="1">
-        <v>2373.280000</v>
+        <v>2373.2800000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2744.510000</v>
+        <v>-2744.51</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>36537.085347</v>
       </c>
       <c r="BY13" s="1">
-        <v>10.149190</v>
+        <v>10.149190000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2852.850000</v>
+        <v>2852.85</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3728.490000</v>
+        <v>-3728.49</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>36549.017606</v>
+        <v>36549.017606000001</v>
       </c>
       <c r="CD13" s="1">
         <v>10.152505</v>
       </c>
       <c r="CE13" s="1">
-        <v>4272.780000</v>
+        <v>4272.78</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6126.040000</v>
+        <v>-6126.04</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>36377.299160</v>
+        <v>36377.299160000002</v>
       </c>
       <c r="B14" s="1">
-        <v>10.104805</v>
+        <v>10.104805000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1253.440000</v>
+        <v>1253.44</v>
       </c>
       <c r="D14" s="1">
-        <v>-306.896000</v>
+        <v>-306.89600000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>36387.751817</v>
+        <v>36387.751816999997</v>
       </c>
       <c r="G14" s="1">
         <v>10.107709</v>
       </c>
       <c r="H14" s="1">
-        <v>1277.340000</v>
+        <v>1277.3399999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.895000</v>
+        <v>-264.89499999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>36397.913354</v>
+        <v>36397.913353999997</v>
       </c>
       <c r="L14" s="1">
         <v>10.110531</v>
       </c>
       <c r="M14" s="1">
-        <v>1312.550000</v>
+        <v>1312.55</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.778000</v>
+        <v>-203.77799999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>36408.160701</v>
+        <v>36408.160701000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>10.113378</v>
+        <v>10.113378000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1324.520000</v>
+        <v>1324.52</v>
       </c>
       <c r="S14" s="1">
-        <v>-185.466000</v>
+        <v>-185.46600000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>36418.364399</v>
+        <v>36418.364398999998</v>
       </c>
       <c r="V14" s="1">
-        <v>10.116212</v>
+        <v>10.116212000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1337.730000</v>
+        <v>1337.73</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.990000</v>
+        <v>-171.99</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>36428.552722</v>
@@ -3640,602 +4056,602 @@
         <v>10.119042</v>
       </c>
       <c r="AB14" s="1">
-        <v>1355.220000</v>
+        <v>1355.22</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.635000</v>
+        <v>-169.63499999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>36438.835781</v>
+        <v>36438.835781000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>10.121899</v>
+        <v>10.121899000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1368.180000</v>
+        <v>1368.18</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.408000</v>
+        <v>-179.40799999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>36449.020630</v>
+        <v>36449.020629999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>10.124728</v>
+        <v>10.124727999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1388.880000</v>
+        <v>1388.88</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.206000</v>
+        <v>-209.20599999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>36459.773929</v>
+        <v>36459.773929000003</v>
       </c>
       <c r="AP14" s="1">
         <v>10.127715</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.079000</v>
+        <v>-253.07900000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>36471.096075</v>
+        <v>36471.096075000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>10.130860</v>
+        <v>10.13086</v>
       </c>
       <c r="AV14" s="1">
-        <v>1435.000000</v>
+        <v>1435</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.158000</v>
+        <v>-313.15800000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>36482.114205</v>
+        <v>36482.114204999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>10.133921</v>
+        <v>10.133921000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1454.170000</v>
+        <v>1454.17</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.520000</v>
+        <v>-365.52</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>36493.049532</v>
+        <v>36493.049531999997</v>
       </c>
       <c r="BE14" s="1">
         <v>10.136958</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.910000</v>
+        <v>1538.91</v>
       </c>
       <c r="BG14" s="1">
-        <v>-615.148000</v>
+        <v>-615.14800000000002</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>36503.952064</v>
+        <v>36503.952063999997</v>
       </c>
       <c r="BJ14" s="1">
         <v>10.139987</v>
       </c>
       <c r="BK14" s="1">
-        <v>1692.480000</v>
+        <v>1692.48</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1063.560000</v>
+        <v>-1063.56</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>36515.099152</v>
+        <v>36515.099152000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>10.143083</v>
+        <v>10.143083000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1985.420000</v>
+        <v>1985.42</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1841.950000</v>
+        <v>-1841.95</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>36526.421329</v>
+        <v>36526.421328999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>10.146228</v>
+        <v>10.146228000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2373.540000</v>
+        <v>2373.54</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2743.640000</v>
+        <v>-2743.64</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>36537.508402</v>
+        <v>36537.508401999999</v>
       </c>
       <c r="BY14" s="1">
         <v>10.149308</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2852.380000</v>
+        <v>2852.38</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3728.570000</v>
+        <v>-3728.57</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>36549.548329</v>
+        <v>36549.548328999997</v>
       </c>
       <c r="CD14" s="1">
         <v>10.152652</v>
       </c>
       <c r="CE14" s="1">
-        <v>4279.710000</v>
+        <v>4279.71</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6112.650000</v>
+        <v>-6112.65</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>36377.678599</v>
+        <v>36377.678598999999</v>
       </c>
       <c r="B15" s="1">
         <v>10.104911</v>
       </c>
       <c r="C15" s="1">
-        <v>1252.820000</v>
+        <v>1252.82</v>
       </c>
       <c r="D15" s="1">
-        <v>-307.578000</v>
+        <v>-307.57799999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>36388.093064</v>
+        <v>36388.093064000001</v>
       </c>
       <c r="G15" s="1">
         <v>10.107804</v>
       </c>
       <c r="H15" s="1">
-        <v>1277.660000</v>
+        <v>1277.6600000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-265.064000</v>
+        <v>-265.06400000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>36398.257579</v>
+        <v>36398.257578999997</v>
       </c>
       <c r="L15" s="1">
-        <v>10.110627</v>
+        <v>10.110626999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1312.830000</v>
+        <v>1312.83</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.291000</v>
+        <v>-203.291</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>36408.506945</v>
+        <v>36408.506945000001</v>
       </c>
       <c r="Q15" s="1">
         <v>10.113474</v>
       </c>
       <c r="R15" s="1">
-        <v>1324.530000</v>
+        <v>1324.53</v>
       </c>
       <c r="S15" s="1">
-        <v>-185.504000</v>
+        <v>-185.50399999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>36418.783518</v>
+        <v>36418.783517999997</v>
       </c>
       <c r="V15" s="1">
         <v>10.116329</v>
       </c>
       <c r="W15" s="1">
-        <v>1337.820000</v>
+        <v>1337.82</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.019000</v>
+        <v>-172.01900000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>36428.970881</v>
+        <v>36428.970881000001</v>
       </c>
       <c r="AA15" s="1">
         <v>10.119159</v>
       </c>
       <c r="AB15" s="1">
-        <v>1355.230000</v>
+        <v>1355.23</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.801000</v>
+        <v>-169.80099999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>36439.130404</v>
+        <v>36439.130404000003</v>
       </c>
       <c r="AF15" s="1">
         <v>10.121981</v>
       </c>
       <c r="AG15" s="1">
-        <v>1368.230000</v>
+        <v>1368.23</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.346000</v>
+        <v>-179.346</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>36449.309830</v>
+        <v>36449.309829999998</v>
       </c>
       <c r="AK15" s="1">
         <v>10.124808</v>
       </c>
       <c r="AL15" s="1">
-        <v>1388.890000</v>
+        <v>1388.89</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.205000</v>
+        <v>-209.20500000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>36460.133809</v>
+        <v>36460.133808999999</v>
       </c>
       <c r="AP15" s="1">
         <v>10.127815</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.076000</v>
+        <v>-253.07599999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>36471.456169</v>
+        <v>36471.456168999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>10.130960</v>
+        <v>10.13096</v>
       </c>
       <c r="AV15" s="1">
-        <v>1434.970000</v>
+        <v>1434.97</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.200000</v>
+        <v>-313.2</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>36482.473307</v>
       </c>
       <c r="AZ15" s="1">
-        <v>10.134020</v>
+        <v>10.13402</v>
       </c>
       <c r="BA15" s="1">
-        <v>1454.190000</v>
+        <v>1454.19</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.496000</v>
+        <v>-365.49599999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>36493.773200</v>
+        <v>36493.773200000003</v>
       </c>
       <c r="BE15" s="1">
         <v>10.137159</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.930000</v>
+        <v>1538.93</v>
       </c>
       <c r="BG15" s="1">
-        <v>-615.135000</v>
+        <v>-615.13499999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>36504.701553</v>
+        <v>36504.701552999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>10.140195</v>
       </c>
       <c r="BK15" s="1">
-        <v>1692.440000</v>
+        <v>1692.44</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1063.510000</v>
+        <v>-1063.51</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>36515.521248</v>
+        <v>36515.521247999997</v>
       </c>
       <c r="BO15" s="1">
-        <v>10.143200</v>
+        <v>10.1432</v>
       </c>
       <c r="BP15" s="1">
-        <v>1985.380000</v>
+        <v>1985.38</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1841.920000</v>
+        <v>-1841.92</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>36526.834527</v>
+        <v>36526.834526999999</v>
       </c>
       <c r="BT15" s="1">
         <v>10.146343</v>
       </c>
       <c r="BU15" s="1">
-        <v>2373.770000</v>
+        <v>2373.77</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2743.260000</v>
+        <v>-2743.26</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>36537.928050</v>
+        <v>36537.928050000002</v>
       </c>
       <c r="BY15" s="1">
         <v>10.149424</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2852.210000</v>
+        <v>2852.21</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3728.520000</v>
+        <v>-3728.52</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>36550.376610</v>
+        <v>36550.376609999999</v>
       </c>
       <c r="CD15" s="1">
         <v>10.152882</v>
       </c>
       <c r="CE15" s="1">
-        <v>4263.570000</v>
+        <v>4263.57</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6107.240000</v>
+        <v>-6107.24</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>36378.022826</v>
       </c>
       <c r="B16" s="1">
-        <v>10.105006</v>
+        <v>10.105005999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1252.830000</v>
+        <v>1252.83</v>
       </c>
       <c r="D16" s="1">
-        <v>-307.059000</v>
+        <v>-307.05900000000003</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>36388.440054</v>
+        <v>36388.440053999999</v>
       </c>
       <c r="G16" s="1">
-        <v>10.107900</v>
+        <v>10.107900000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1277.340000</v>
+        <v>1277.3399999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.891000</v>
+        <v>-264.89100000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>36398.606761</v>
+        <v>36398.606761000003</v>
       </c>
       <c r="L16" s="1">
-        <v>10.110724</v>
+        <v>10.110723999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1312.770000</v>
+        <v>1312.77</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.316000</v>
+        <v>-203.316</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>36408.921069</v>
+        <v>36408.921069000004</v>
       </c>
       <c r="Q16" s="1">
-        <v>10.113589</v>
+        <v>10.113588999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1324.440000</v>
+        <v>1324.44</v>
       </c>
       <c r="S16" s="1">
-        <v>-185.478000</v>
+        <v>-185.47800000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>36419.052874</v>
+        <v>36419.052874000001</v>
       </c>
       <c r="V16" s="1">
-        <v>10.116404</v>
+        <v>10.116403999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1337.660000</v>
+        <v>1337.66</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.942000</v>
+        <v>-171.94200000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>36429.258033</v>
+        <v>36429.258032999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>10.119238</v>
+        <v>10.119237999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1355.320000</v>
+        <v>1355.32</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.715000</v>
+        <v>-169.715</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>36439.474628</v>
+        <v>36439.474628000004</v>
       </c>
       <c r="AF16" s="1">
         <v>10.122076</v>
       </c>
       <c r="AG16" s="1">
-        <v>1368.170000</v>
+        <v>1368.17</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.398000</v>
+        <v>-179.398</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>36449.659974</v>
+        <v>36449.659974000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>10.124906</v>
+        <v>10.124905999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1388.910000</v>
+        <v>1388.91</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.210000</v>
+        <v>-209.21</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>36460.494087</v>
+        <v>36460.494086999999</v>
       </c>
       <c r="AP16" s="1">
         <v>10.127915</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1410.480000</v>
+        <v>1410.48</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.080000</v>
+        <v>-253.08</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>36472.188792</v>
+        <v>36472.188792000001</v>
       </c>
       <c r="AU16" s="1">
         <v>10.131164</v>
       </c>
       <c r="AV16" s="1">
-        <v>1434.980000</v>
+        <v>1434.98</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.183000</v>
+        <v>-313.18299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>36483.190025</v>
+        <v>36483.190025000004</v>
       </c>
       <c r="AZ16" s="1">
         <v>10.134219</v>
       </c>
       <c r="BA16" s="1">
-        <v>1454.210000</v>
+        <v>1454.21</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.518000</v>
+        <v>-365.51799999999997</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>36494.160571</v>
@@ -4244,255 +4660,255 @@
         <v>10.137267</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.930000</v>
+        <v>1538.93</v>
       </c>
       <c r="BG16" s="1">
-        <v>-615.133000</v>
+        <v>-615.13300000000004</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>36505.100830</v>
+        <v>36505.100830000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>10.140306</v>
+        <v>10.140306000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1692.510000</v>
+        <v>1692.51</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1063.560000</v>
+        <v>-1063.56</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>36515.914079</v>
+        <v>36515.914079000002</v>
       </c>
       <c r="BO16" s="1">
         <v>10.143309</v>
       </c>
       <c r="BP16" s="1">
-        <v>1985.440000</v>
+        <v>1985.44</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1841.960000</v>
+        <v>-1841.96</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>36527.554192</v>
+        <v>36527.554192000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>10.146543</v>
+        <v>10.146542999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2373.640000</v>
+        <v>2373.64</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2742.820000</v>
+        <v>-2742.82</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>36538.684416</v>
+        <v>36538.684415999996</v>
       </c>
       <c r="BY16" s="1">
         <v>10.149635</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2852.500000</v>
+        <v>2852.5</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3728.890000</v>
+        <v>-3728.89</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>36550.582448</v>
+        <v>36550.582448000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>10.152940</v>
+        <v>10.152939999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4260.460000</v>
+        <v>4260.46</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6125.690000</v>
+        <v>-6125.69</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>36378.363575</v>
+        <v>36378.363575000003</v>
       </c>
       <c r="B17" s="1">
-        <v>10.105101</v>
+        <v>10.105100999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1253.350000</v>
+        <v>1253.3499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-307.250000</v>
+        <v>-307.25</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>36388.856902</v>
       </c>
       <c r="G17" s="1">
-        <v>10.108016</v>
+        <v>10.108015999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1278.070000</v>
+        <v>1278.07</v>
       </c>
       <c r="I17" s="1">
-        <v>-266.401000</v>
+        <v>-266.40100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>36399.028892</v>
+        <v>36399.028892000002</v>
       </c>
       <c r="L17" s="1">
-        <v>10.110841</v>
+        <v>10.110841000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1312.410000</v>
+        <v>1312.41</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.097000</v>
+        <v>-203.09700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>36409.215227</v>
+        <v>36409.215227000001</v>
       </c>
       <c r="Q17" s="1">
         <v>10.113671</v>
       </c>
       <c r="R17" s="1">
-        <v>1324.420000</v>
+        <v>1324.42</v>
       </c>
       <c r="S17" s="1">
-        <v>-185.456000</v>
+        <v>-185.45599999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>36419.396110</v>
+        <v>36419.396110000001</v>
       </c>
       <c r="V17" s="1">
-        <v>10.116499</v>
+        <v>10.116498999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1337.780000</v>
+        <v>1337.78</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.935000</v>
+        <v>-171.935</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>36429.608208</v>
+        <v>36429.608207999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>10.119336</v>
+        <v>10.119336000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1355.050000</v>
+        <v>1355.05</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.674000</v>
+        <v>-169.67400000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>36439.818357</v>
+        <v>36439.818356999996</v>
       </c>
       <c r="AF17" s="1">
-        <v>10.122172</v>
+        <v>10.122172000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1368.200000</v>
+        <v>1368.2</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.378000</v>
+        <v>-179.37799999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>36450.008663</v>
+        <v>36450.008663000001</v>
       </c>
       <c r="AK17" s="1">
         <v>10.125002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1388.880000</v>
+        <v>1388.88</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.211000</v>
+        <v>-209.21100000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>36461.218742</v>
+        <v>36461.218741999997</v>
       </c>
       <c r="AP17" s="1">
         <v>10.128116</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.032000</v>
+        <v>-253.03200000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>36472.578150</v>
+        <v>36472.578150000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>10.131272</v>
+        <v>10.131271999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1435.000000</v>
+        <v>1435</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.191000</v>
+        <v>-313.19099999999997</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>36483.549130</v>
+        <v>36483.549129999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>10.134319</v>
       </c>
       <c r="BA17" s="1">
-        <v>1454.190000</v>
+        <v>1454.19</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.486000</v>
+        <v>-365.48599999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>36494.523148</v>
@@ -4501,180 +4917,180 @@
         <v>10.137368</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.950000</v>
+        <v>1538.95</v>
       </c>
       <c r="BG17" s="1">
-        <v>-615.123000</v>
+        <v>-615.12300000000005</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>36505.752044</v>
+        <v>36505.752044000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>10.140487</v>
       </c>
       <c r="BK17" s="1">
-        <v>1692.420000</v>
+        <v>1692.42</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1063.540000</v>
+        <v>-1063.54</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>36516.648690</v>
+        <v>36516.648690000002</v>
       </c>
       <c r="BO17" s="1">
         <v>10.143514</v>
       </c>
       <c r="BP17" s="1">
-        <v>1985.390000</v>
+        <v>1985.39</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1841.840000</v>
+        <v>-1841.84</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>36527.668272</v>
+        <v>36527.668272000003</v>
       </c>
       <c r="BT17" s="1">
         <v>10.146575</v>
       </c>
       <c r="BU17" s="1">
-        <v>2373.930000</v>
+        <v>2373.9299999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2742.110000</v>
+        <v>-2742.11</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>36538.799984</v>
+        <v>36538.799983999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>10.149667</v>
+        <v>10.149667000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2852.790000</v>
+        <v>2852.79</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3728.590000</v>
+        <v>-3728.59</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>36551.102753</v>
+        <v>36551.102752999999</v>
       </c>
       <c r="CD17" s="1">
         <v>10.153084</v>
       </c>
       <c r="CE17" s="1">
-        <v>4278.620000</v>
+        <v>4278.62</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6108.200000</v>
+        <v>-6108.2</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>36378.788613</v>
+        <v>36378.788612999997</v>
       </c>
       <c r="B18" s="1">
         <v>10.105219</v>
       </c>
       <c r="C18" s="1">
-        <v>1253.290000</v>
+        <v>1253.29</v>
       </c>
       <c r="D18" s="1">
-        <v>-307.135000</v>
+        <v>-307.13499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>36389.133205</v>
+        <v>36389.133204999998</v>
       </c>
       <c r="G18" s="1">
         <v>10.108093</v>
       </c>
       <c r="H18" s="1">
-        <v>1278.360000</v>
+        <v>1278.3599999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-264.582000</v>
+        <v>-264.58199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>36399.320008</v>
+        <v>36399.320008000002</v>
       </c>
       <c r="L18" s="1">
         <v>10.110922</v>
       </c>
       <c r="M18" s="1">
-        <v>1312.440000</v>
+        <v>1312.44</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.670000</v>
+        <v>-203.67</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>36409.563883</v>
+        <v>36409.563883000003</v>
       </c>
       <c r="Q18" s="1">
         <v>10.113768</v>
       </c>
       <c r="R18" s="1">
-        <v>1324.460000</v>
+        <v>1324.46</v>
       </c>
       <c r="S18" s="1">
-        <v>-185.419000</v>
+        <v>-185.41900000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>36419.738841</v>
+        <v>36419.738840999999</v>
       </c>
       <c r="V18" s="1">
-        <v>10.116594</v>
+        <v>10.116593999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1337.780000</v>
+        <v>1337.78</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.959000</v>
+        <v>-171.959</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>36429.955904</v>
+        <v>36429.955904000002</v>
       </c>
       <c r="AA18" s="1">
         <v>10.119432</v>
       </c>
       <c r="AB18" s="1">
-        <v>1355.210000</v>
+        <v>1355.21</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.688000</v>
+        <v>-169.68799999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>36440.507329</v>
@@ -4683,73 +5099,73 @@
         <v>10.122363</v>
       </c>
       <c r="AG18" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.339000</v>
+        <v>-179.339</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>36450.707525</v>
+        <v>36450.707524999998</v>
       </c>
       <c r="AK18" s="1">
         <v>10.125197</v>
       </c>
       <c r="AL18" s="1">
-        <v>1388.880000</v>
+        <v>1388.88</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.244000</v>
+        <v>-209.244</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>36461.575404</v>
+        <v>36461.575404000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>10.128215</v>
+        <v>10.128215000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.103000</v>
+        <v>-253.10300000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>36472.943212</v>
+        <v>36472.943211999998</v>
       </c>
       <c r="AU18" s="1">
         <v>10.131373</v>
       </c>
       <c r="AV18" s="1">
-        <v>1434.990000</v>
+        <v>1434.99</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.206000</v>
+        <v>-313.20600000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>36483.911241</v>
+        <v>36483.911241000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>10.134420</v>
+        <v>10.13442</v>
       </c>
       <c r="BA18" s="1">
-        <v>1454.220000</v>
+        <v>1454.22</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.494000</v>
+        <v>-365.49400000000003</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>36495.195194</v>
@@ -4758,180 +5174,180 @@
         <v>10.137554</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.920000</v>
+        <v>1538.92</v>
       </c>
       <c r="BG18" s="1">
-        <v>-615.158000</v>
+        <v>-615.15800000000002</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>36506.196472</v>
+        <v>36506.196472000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>10.140610</v>
+        <v>10.140610000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1692.450000</v>
+        <v>1692.45</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1063.470000</v>
+        <v>-1063.47</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>36517.156061</v>
+        <v>36517.156061000002</v>
       </c>
       <c r="BO18" s="1">
         <v>10.143654</v>
       </c>
       <c r="BP18" s="1">
-        <v>1985.280000</v>
+        <v>1985.28</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1841.770000</v>
+        <v>-1841.77</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>36528.106767</v>
+        <v>36528.106766999997</v>
       </c>
       <c r="BT18" s="1">
         <v>10.146696</v>
       </c>
       <c r="BU18" s="1">
-        <v>2373.460000</v>
+        <v>2373.46</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2741.340000</v>
+        <v>-2741.34</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>36539.235968</v>
+        <v>36539.235968000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>10.149788</v>
+        <v>10.149787999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2852.490000</v>
+        <v>2852.49</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3728.460000</v>
+        <v>-3728.46</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>36551.641407</v>
+        <v>36551.641407000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>10.153234</v>
+        <v>10.153233999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4261.400000</v>
+        <v>4261.3999999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6119.550000</v>
+        <v>-6119.55</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>36379.064423</v>
+        <v>36379.064423000003</v>
       </c>
       <c r="B19" s="1">
-        <v>10.105296</v>
+        <v>10.105295999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1253.280000</v>
+        <v>1253.28</v>
       </c>
       <c r="D19" s="1">
-        <v>-307.036000</v>
+        <v>-307.036</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>36389.481897</v>
+        <v>36389.481896999998</v>
       </c>
       <c r="G19" s="1">
-        <v>10.108189</v>
+        <v>10.108188999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1277.430000</v>
+        <v>1277.43</v>
       </c>
       <c r="I19" s="1">
-        <v>-264.860000</v>
+        <v>-264.86</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>36399.664728</v>
+        <v>36399.664728000003</v>
       </c>
       <c r="L19" s="1">
         <v>10.111018</v>
       </c>
       <c r="M19" s="1">
-        <v>1312.240000</v>
+        <v>1312.24</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.617000</v>
+        <v>-203.61699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>36409.912570</v>
+        <v>36409.91257</v>
       </c>
       <c r="Q19" s="1">
-        <v>10.113865</v>
+        <v>10.113865000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1324.570000</v>
+        <v>1324.57</v>
       </c>
       <c r="S19" s="1">
-        <v>-185.499000</v>
+        <v>-185.499</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>36420.426801</v>
+        <v>36420.426801000001</v>
       </c>
       <c r="V19" s="1">
         <v>10.116785</v>
       </c>
       <c r="W19" s="1">
-        <v>1337.800000</v>
+        <v>1337.8</v>
       </c>
       <c r="X19" s="1">
-        <v>-172.008000</v>
+        <v>-172.00800000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>36430.653809</v>
+        <v>36430.653809000003</v>
       </c>
       <c r="AA19" s="1">
         <v>10.119626</v>
       </c>
       <c r="AB19" s="1">
-        <v>1355.200000</v>
+        <v>1355.2</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.633000</v>
+        <v>-169.63300000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>36440.847553</v>
@@ -4940,28 +5356,28 @@
         <v>10.122458</v>
       </c>
       <c r="AG19" s="1">
-        <v>1368.220000</v>
+        <v>1368.22</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.314000</v>
+        <v>-179.31399999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>36451.052244</v>
+        <v>36451.052243999999</v>
       </c>
       <c r="AK19" s="1">
         <v>10.125292</v>
       </c>
       <c r="AL19" s="1">
-        <v>1388.880000</v>
+        <v>1388.88</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.175000</v>
+        <v>-209.17500000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>36461.937974</v>
@@ -4970,58 +5386,58 @@
         <v>10.128316</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.069000</v>
+        <v>-253.06899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>36473.617735</v>
       </c>
       <c r="AU19" s="1">
-        <v>10.131560</v>
+        <v>10.13156</v>
       </c>
       <c r="AV19" s="1">
-        <v>1435.000000</v>
+        <v>1435</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.193000</v>
+        <v>-313.19299999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>36484.589737</v>
+        <v>36484.589737000002</v>
       </c>
       <c r="AZ19" s="1">
         <v>10.134608</v>
       </c>
       <c r="BA19" s="1">
-        <v>1454.200000</v>
+        <v>1454.2</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.491000</v>
+        <v>-365.49099999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>36495.634154</v>
+        <v>36495.634153999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>10.137676</v>
+        <v>10.137676000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.940000</v>
+        <v>1538.94</v>
       </c>
       <c r="BG19" s="1">
-        <v>-615.088000</v>
+        <v>-615.08799999999997</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>36506.636906</v>
@@ -5030,150 +5446,150 @@
         <v>10.140732</v>
       </c>
       <c r="BK19" s="1">
-        <v>1692.480000</v>
+        <v>1692.48</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1063.450000</v>
+        <v>-1063.45</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>36517.570716</v>
+        <v>36517.570716000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>10.143770</v>
+        <v>10.14377</v>
       </c>
       <c r="BP19" s="1">
-        <v>1985.400000</v>
+        <v>1985.4</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1841.790000</v>
+        <v>-1841.79</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>36528.517917</v>
+        <v>36528.517916999997</v>
       </c>
       <c r="BT19" s="1">
         <v>10.146811</v>
       </c>
       <c r="BU19" s="1">
-        <v>2373.130000</v>
+        <v>2373.13</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2740.990000</v>
+        <v>-2740.99</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>36539.653636</v>
+        <v>36539.653636000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>10.149904</v>
+        <v>10.149903999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2852.140000</v>
+        <v>2852.14</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3728.860000</v>
+        <v>-3728.86</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>36552.179070</v>
+        <v>36552.179069999998</v>
       </c>
       <c r="CD19" s="1">
         <v>10.153383</v>
       </c>
       <c r="CE19" s="1">
-        <v>4279.390000</v>
+        <v>4279.3900000000003</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6122.160000</v>
+        <v>-6122.16</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>36379.406628</v>
+        <v>36379.406627999997</v>
       </c>
       <c r="B20" s="1">
-        <v>10.105391</v>
+        <v>10.105390999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1253.240000</v>
+        <v>1253.24</v>
       </c>
       <c r="D20" s="1">
-        <v>-307.172000</v>
+        <v>-307.17200000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>36389.828071</v>
+        <v>36389.828071000004</v>
       </c>
       <c r="G20" s="1">
         <v>10.108286</v>
       </c>
       <c r="H20" s="1">
-        <v>1277.440000</v>
+        <v>1277.44</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.938000</v>
+        <v>-264.93799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>36400.008455</v>
+        <v>36400.008455000003</v>
       </c>
       <c r="L20" s="1">
         <v>10.111113</v>
       </c>
       <c r="M20" s="1">
-        <v>1312.680000</v>
+        <v>1312.68</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.216000</v>
+        <v>-203.21600000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>36410.611961</v>
+        <v>36410.611961000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>10.114059</v>
+        <v>10.114058999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1324.510000</v>
+        <v>1324.51</v>
       </c>
       <c r="S20" s="1">
-        <v>-185.608000</v>
+        <v>-185.608</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>36420.768013</v>
+        <v>36420.768013000001</v>
       </c>
       <c r="V20" s="1">
-        <v>10.116880</v>
+        <v>10.11688</v>
       </c>
       <c r="W20" s="1">
-        <v>1337.860000</v>
+        <v>1337.86</v>
       </c>
       <c r="X20" s="1">
-        <v>-172.014000</v>
+        <v>-172.01400000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>36431.004942</v>
@@ -5182,784 +5598,784 @@
         <v>10.119724</v>
       </c>
       <c r="AB20" s="1">
-        <v>1355.440000</v>
+        <v>1355.44</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.783000</v>
+        <v>-169.78299999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>36441.191281</v>
+        <v>36441.191280999999</v>
       </c>
       <c r="AF20" s="1">
         <v>10.122553</v>
       </c>
       <c r="AG20" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.371000</v>
+        <v>-179.37100000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>36451.403907</v>
       </c>
       <c r="AK20" s="1">
-        <v>10.125390</v>
+        <v>10.125389999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1388.940000</v>
+        <v>1388.94</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.192000</v>
+        <v>-209.19200000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>36462.603081</v>
+        <v>36462.603081000001</v>
       </c>
       <c r="AP20" s="1">
         <v>10.128501</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1410.540000</v>
+        <v>1410.54</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.064000</v>
+        <v>-253.06399999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>36474.069094</v>
+        <v>36474.069093999999</v>
       </c>
       <c r="AU20" s="1">
         <v>10.131686</v>
       </c>
       <c r="AV20" s="1">
-        <v>1434.980000</v>
+        <v>1434.98</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.170000</v>
+        <v>-313.17</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>36484.985575</v>
+        <v>36484.985574999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>10.134718</v>
+        <v>10.134717999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1454.190000</v>
+        <v>1454.19</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.482000</v>
+        <v>-365.48200000000003</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>36495.980536</v>
+        <v>36495.980536000003</v>
       </c>
       <c r="BE20" s="1">
         <v>10.137772</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.890000</v>
+        <v>1538.89</v>
       </c>
       <c r="BG20" s="1">
-        <v>-615.073000</v>
+        <v>-615.07299999999998</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>36507.024282</v>
+        <v>36507.024281999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>10.140840</v>
+        <v>10.140840000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1692.460000</v>
+        <v>1692.46</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1063.530000</v>
+        <v>-1063.53</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>36517.969501</v>
       </c>
       <c r="BO20" s="1">
-        <v>10.143880</v>
+        <v>10.143879999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1985.530000</v>
+        <v>1985.53</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1841.950000</v>
+        <v>-1841.95</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>36528.936077</v>
+        <v>36528.936076999998</v>
       </c>
       <c r="BT20" s="1">
         <v>10.146927</v>
       </c>
       <c r="BU20" s="1">
-        <v>2372.870000</v>
+        <v>2372.87</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2740.460000</v>
+        <v>-2740.46</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>36540.101486</v>
       </c>
       <c r="BY20" s="1">
-        <v>10.150028</v>
+        <v>10.150028000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2852.260000</v>
+        <v>2852.26</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3729.130000</v>
+        <v>-3729.13</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>36552.720733</v>
+        <v>36552.720733000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>10.153534</v>
+        <v>10.153534000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4265.660000</v>
+        <v>4265.66</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6108.790000</v>
+        <v>-6108.79</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>36379.748868</v>
+        <v>36379.748868000002</v>
       </c>
       <c r="B21" s="1">
-        <v>10.105486</v>
+        <v>10.105486000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1253.610000</v>
+        <v>1253.6099999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-307.188000</v>
+        <v>-307.18799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>36390.521476</v>
+        <v>36390.521476000002</v>
       </c>
       <c r="G21" s="1">
         <v>10.108478</v>
       </c>
       <c r="H21" s="1">
-        <v>1277.910000</v>
+        <v>1277.9100000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-265.663000</v>
+        <v>-265.66300000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>36400.727686</v>
+        <v>36400.727685999998</v>
       </c>
       <c r="L21" s="1">
-        <v>10.111313</v>
+        <v>10.111313000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1312.840000</v>
+        <v>1312.84</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.021000</v>
+        <v>-203.02099999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>36410.960618</v>
+        <v>36410.960617999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>10.114156</v>
+        <v>10.114155999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1324.500000</v>
+        <v>1324.5</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.568000</v>
+        <v>-185.56800000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>36421.111772</v>
+        <v>36421.111771999997</v>
       </c>
       <c r="V21" s="1">
         <v>10.116975</v>
       </c>
       <c r="W21" s="1">
-        <v>1337.820000</v>
+        <v>1337.82</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.948000</v>
+        <v>-171.94800000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>36431.351150</v>
+        <v>36431.351150000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>10.119820</v>
+        <v>10.119820000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1355.040000</v>
+        <v>1355.04</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.626000</v>
+        <v>-169.626</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>36441.839586</v>
+        <v>36441.839586000002</v>
       </c>
       <c r="AF21" s="1">
         <v>10.122733</v>
       </c>
       <c r="AG21" s="1">
-        <v>1368.190000</v>
+        <v>1368.19</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.373000</v>
+        <v>-179.37299999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>36452.053171</v>
       </c>
       <c r="AK21" s="1">
-        <v>10.125570</v>
+        <v>10.12557</v>
       </c>
       <c r="AL21" s="1">
-        <v>1388.880000</v>
+        <v>1388.88</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.194000</v>
+        <v>-209.19399999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>36463.050966</v>
+        <v>36463.050966000003</v>
       </c>
       <c r="AP21" s="1">
         <v>10.128625</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.051000</v>
+        <v>-253.05099999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>36474.435142</v>
+        <v>36474.435142000002</v>
       </c>
       <c r="AU21" s="1">
         <v>10.131788</v>
       </c>
       <c r="AV21" s="1">
-        <v>1434.990000</v>
+        <v>1434.99</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.205000</v>
+        <v>-313.20499999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>36485.343687</v>
+        <v>36485.343687000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>10.134818</v>
+        <v>10.134817999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1454.190000</v>
+        <v>1454.19</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.456000</v>
+        <v>-365.45600000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>36496.355832</v>
+        <v>36496.355832000001</v>
       </c>
       <c r="BE21" s="1">
         <v>10.137877</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG21" s="1">
-        <v>-615.111000</v>
+        <v>-615.11099999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>36507.441946</v>
+        <v>36507.441945999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>10.140956</v>
+        <v>10.140955999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1692.440000</v>
+        <v>1692.44</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1063.460000</v>
+        <v>-1063.46</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>36518.394075</v>
+        <v>36518.394074999997</v>
       </c>
       <c r="BO21" s="1">
         <v>10.143998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1985.360000</v>
+        <v>1985.36</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1841.760000</v>
+        <v>-1841.76</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>36529.349212</v>
+        <v>36529.349212000001</v>
       </c>
       <c r="BT21" s="1">
         <v>10.147041</v>
       </c>
       <c r="BU21" s="1">
-        <v>2372.390000</v>
+        <v>2372.39</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2740.360000</v>
+        <v>-2740.36</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>36540.503754</v>
+        <v>36540.503753999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>10.150140</v>
+        <v>10.15014</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2852.970000</v>
+        <v>2852.97</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3728.890000</v>
+        <v>-3728.89</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>36553.259033</v>
+        <v>36553.259033000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.153683</v>
+        <v>10.153682999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4267.570000</v>
+        <v>4267.57</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6129.880000</v>
+        <v>-6129.88</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>36380.429413</v>
+        <v>36380.429412999998</v>
       </c>
       <c r="B22" s="1">
         <v>10.105675</v>
       </c>
       <c r="C22" s="1">
-        <v>1253.290000</v>
+        <v>1253.29</v>
       </c>
       <c r="D22" s="1">
-        <v>-307.011000</v>
+        <v>-307.01100000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>36390.865701</v>
+        <v>36390.865701000002</v>
       </c>
       <c r="G22" s="1">
-        <v>10.108574</v>
+        <v>10.108574000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1277.430000</v>
+        <v>1277.43</v>
       </c>
       <c r="I22" s="1">
-        <v>-264.272000</v>
+        <v>-264.27199999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>36401.046118</v>
+        <v>36401.046117999998</v>
       </c>
       <c r="L22" s="1">
         <v>10.111402</v>
       </c>
       <c r="M22" s="1">
-        <v>1312.940000</v>
+        <v>1312.94</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.166000</v>
+        <v>-203.166</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>36411.308312</v>
+        <v>36411.308312000001</v>
       </c>
       <c r="Q22" s="1">
         <v>10.114252</v>
       </c>
       <c r="R22" s="1">
-        <v>1324.530000</v>
+        <v>1324.53</v>
       </c>
       <c r="S22" s="1">
-        <v>-185.497000</v>
+        <v>-185.49700000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>36421.763978</v>
+        <v>36421.763978000003</v>
       </c>
       <c r="V22" s="1">
-        <v>10.117157</v>
+        <v>10.117157000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1337.680000</v>
+        <v>1337.68</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.968000</v>
+        <v>-171.96799999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>36432.006862</v>
+        <v>36432.006862000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>10.120002</v>
+        <v>10.120001999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1355.230000</v>
+        <v>1355.23</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.705000</v>
+        <v>-169.70500000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>36442.222991</v>
+        <v>36442.222991000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>10.122840</v>
+        <v>10.12284</v>
       </c>
       <c r="AG22" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.403000</v>
+        <v>-179.40299999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>36452.449011</v>
+        <v>36452.449010999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.125680</v>
+        <v>10.125679999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1388.880000</v>
+        <v>1388.88</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.181000</v>
+        <v>-209.18100000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>36463.408612</v>
+        <v>36463.408611999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>10.128725</v>
+        <v>10.128724999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.082000</v>
+        <v>-253.08199999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>36474.800692</v>
+        <v>36474.800691999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>10.131889</v>
+        <v>10.131888999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1434.980000</v>
+        <v>1434.98</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.187000</v>
+        <v>-313.18700000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>36485.703752</v>
+        <v>36485.703752000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>10.134918</v>
+        <v>10.134918000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1454.240000</v>
+        <v>1454.24</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.434000</v>
+        <v>-365.43400000000003</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>36496.771977</v>
+        <v>36496.771976999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>10.137992</v>
+        <v>10.137992000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.890000</v>
+        <v>1538.89</v>
       </c>
       <c r="BG22" s="1">
-        <v>-615.062000</v>
+        <v>-615.06200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>36507.775225</v>
+        <v>36507.775224999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>10.141049</v>
+        <v>10.141049000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1692.380000</v>
+        <v>1692.38</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1063.510000</v>
+        <v>-1063.51</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>36518.789386</v>
+        <v>36518.789385999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>10.144108</v>
+        <v>10.144107999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1985.290000</v>
+        <v>1985.29</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1841.710000</v>
+        <v>-1841.71</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>36529.762412</v>
+        <v>36529.762411999996</v>
       </c>
       <c r="BT22" s="1">
-        <v>10.147156</v>
+        <v>10.147156000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2371.840000</v>
+        <v>2371.84</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2739.830000</v>
+        <v>-2739.83</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>36540.920381</v>
+        <v>36540.920381000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>10.150256</v>
+        <v>10.150256000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2852.440000</v>
+        <v>2852.44</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3728.330000</v>
+        <v>-3728.33</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>36553.801484</v>
+        <v>36553.801484000003</v>
       </c>
       <c r="CD22" s="1">
         <v>10.153834</v>
       </c>
       <c r="CE22" s="1">
-        <v>4272.310000</v>
+        <v>4272.3100000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6104.650000</v>
+        <v>-6104.65</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>36380.774098</v>
+        <v>36380.774098000002</v>
       </c>
       <c r="B23" s="1">
-        <v>10.105771</v>
+        <v>10.105771000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1253.140000</v>
+        <v>1253.1400000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-307.108000</v>
+        <v>-307.108</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>36391.211445</v>
+        <v>36391.211445000001</v>
       </c>
       <c r="G23" s="1">
-        <v>10.108670</v>
+        <v>10.10867</v>
       </c>
       <c r="H23" s="1">
-        <v>1277.420000</v>
+        <v>1277.42</v>
       </c>
       <c r="I23" s="1">
-        <v>-265.357000</v>
+        <v>-265.35700000000003</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>36401.709734</v>
+        <v>36401.709733999996</v>
       </c>
       <c r="L23" s="1">
-        <v>10.111586</v>
+        <v>10.111586000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1312.710000</v>
+        <v>1312.71</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.716000</v>
+        <v>-203.71600000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>36411.969977</v>
+        <v>36411.969977000001</v>
       </c>
       <c r="Q23" s="1">
         <v>10.114436</v>
       </c>
       <c r="R23" s="1">
-        <v>1324.470000</v>
+        <v>1324.47</v>
       </c>
       <c r="S23" s="1">
-        <v>-185.466000</v>
+        <v>-185.46600000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>36422.142940</v>
+        <v>36422.142939999998</v>
       </c>
       <c r="V23" s="1">
         <v>10.117262</v>
       </c>
       <c r="W23" s="1">
-        <v>1337.790000</v>
+        <v>1337.79</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.978000</v>
+        <v>-171.97800000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>36432.398204</v>
+        <v>36432.398203999997</v>
       </c>
       <c r="AA23" s="1">
         <v>10.120111</v>
       </c>
       <c r="AB23" s="1">
-        <v>1355.260000</v>
+        <v>1355.26</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.787000</v>
+        <v>-169.78700000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>36442.567679</v>
@@ -5968,148 +6384,148 @@
         <v>10.122935</v>
       </c>
       <c r="AG23" s="1">
-        <v>1368.230000</v>
+        <v>1368.23</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.404000</v>
+        <v>-179.404</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>36452.797666</v>
+        <v>36452.797665999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>10.125777</v>
+        <v>10.125776999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1388.900000</v>
+        <v>1388.9</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.213000</v>
+        <v>-209.21299999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>36463.768675</v>
+        <v>36463.768674999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>10.128825</v>
+        <v>10.128825000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.076000</v>
+        <v>-253.07599999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>36475.234198</v>
+        <v>36475.234197999998</v>
       </c>
       <c r="AU23" s="1">
         <v>10.132009</v>
       </c>
       <c r="AV23" s="1">
-        <v>1435.000000</v>
+        <v>1435</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.213000</v>
+        <v>-313.21300000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>36486.126874</v>
+        <v>36486.126874000001</v>
       </c>
       <c r="AZ23" s="1">
         <v>10.135035</v>
       </c>
       <c r="BA23" s="1">
-        <v>1454.190000</v>
+        <v>1454.19</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.445000</v>
+        <v>-365.44499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>36497.078007</v>
+        <v>36497.078006999996</v>
       </c>
       <c r="BE23" s="1">
-        <v>10.138077</v>
+        <v>10.138076999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.900000</v>
+        <v>1538.9</v>
       </c>
       <c r="BG23" s="1">
-        <v>-615.118000</v>
+        <v>-615.11800000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>36508.149736</v>
+        <v>36508.149735999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>10.141153</v>
+        <v>10.141152999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1692.500000</v>
+        <v>1692.5</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1063.460000</v>
+        <v>-1063.46</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>36519.206062</v>
+        <v>36519.206061999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>10.144224</v>
+        <v>10.144223999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1985.420000</v>
+        <v>1985.42</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1841.750000</v>
+        <v>-1841.75</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>36530.178028</v>
+        <v>36530.178028000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>10.147272</v>
+        <v>10.147271999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2371.460000</v>
+        <v>2371.46</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2739.700000</v>
+        <v>-2739.7</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>36541.366780</v>
+        <v>36541.366779999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>10.150380</v>
+        <v>10.15038</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2852.560000</v>
+        <v>2852.56</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3728.680000</v>
+        <v>-3728.68</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>36554.339645</v>
@@ -6118,120 +6534,120 @@
         <v>10.153983</v>
       </c>
       <c r="CE23" s="1">
-        <v>4260.820000</v>
+        <v>4260.82</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6123.010000</v>
+        <v>-6123.01</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>36381.115345</v>
+        <v>36381.115344999998</v>
       </c>
       <c r="B24" s="1">
         <v>10.105865</v>
       </c>
       <c r="C24" s="1">
-        <v>1253.130000</v>
+        <v>1253.1300000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-306.898000</v>
+        <v>-306.89800000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>36391.877075</v>
+        <v>36391.877074999997</v>
       </c>
       <c r="G24" s="1">
         <v>10.108855</v>
       </c>
       <c r="H24" s="1">
-        <v>1277.780000</v>
+        <v>1277.78</v>
       </c>
       <c r="I24" s="1">
-        <v>-265.700000</v>
+        <v>-265.7</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>36402.083220</v>
+        <v>36402.08322</v>
       </c>
       <c r="L24" s="1">
-        <v>10.111690</v>
+        <v>10.111689999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1312.400000</v>
+        <v>1312.4</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.745000</v>
+        <v>-203.745</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>36412.352888</v>
+        <v>36412.352888000001</v>
       </c>
       <c r="Q24" s="1">
         <v>10.114542</v>
       </c>
       <c r="R24" s="1">
-        <v>1324.570000</v>
+        <v>1324.57</v>
       </c>
       <c r="S24" s="1">
-        <v>-185.505000</v>
+        <v>-185.505</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>36422.487025</v>
+        <v>36422.487025000002</v>
       </c>
       <c r="V24" s="1">
-        <v>10.117358</v>
+        <v>10.117357999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1337.590000</v>
+        <v>1337.59</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.015000</v>
+        <v>-172.01499999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>36432.748412</v>
+        <v>36432.748412000001</v>
       </c>
       <c r="AA24" s="1">
         <v>10.120208</v>
       </c>
       <c r="AB24" s="1">
-        <v>1355.340000</v>
+        <v>1355.34</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.568000</v>
+        <v>-169.56800000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>36442.914415</v>
+        <v>36442.914414999999</v>
       </c>
       <c r="AF24" s="1">
         <v>10.123032</v>
       </c>
       <c r="AG24" s="1">
-        <v>1368.180000</v>
+        <v>1368.18</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.351000</v>
+        <v>-179.351</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>36453.143892</v>
@@ -6240,285 +6656,285 @@
         <v>10.125873</v>
       </c>
       <c r="AL24" s="1">
-        <v>1388.870000</v>
+        <v>1388.87</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.203000</v>
+        <v>-209.203</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>36464.193783</v>
+        <v>36464.193783000002</v>
       </c>
       <c r="AP24" s="1">
         <v>10.128943</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1410.470000</v>
+        <v>1410.47</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.107000</v>
+        <v>-253.107</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>36475.528852</v>
+        <v>36475.528852000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>10.132091</v>
+        <v>10.132091000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1434.960000</v>
+        <v>1434.96</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.181000</v>
+        <v>-313.18099999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>36486.421959</v>
+        <v>36486.421958999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>10.135117</v>
+        <v>10.135116999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1454.210000</v>
+        <v>1454.21</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.503000</v>
+        <v>-365.50299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>36497.438137</v>
+        <v>36497.438136999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>10.138177</v>
+        <v>10.138177000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.930000</v>
+        <v>1538.93</v>
       </c>
       <c r="BG24" s="1">
-        <v>-615.104000</v>
+        <v>-615.10400000000004</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>36508.529366</v>
+        <v>36508.529366000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>10.141258</v>
+        <v>10.141258000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1692.450000</v>
+        <v>1692.45</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1063.420000</v>
+        <v>-1063.42</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>36519.605803</v>
+        <v>36519.605802999999</v>
       </c>
       <c r="BO24" s="1">
         <v>10.144335</v>
       </c>
       <c r="BP24" s="1">
-        <v>1985.260000</v>
+        <v>1985.26</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1841.740000</v>
+        <v>-1841.74</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>36530.617980</v>
+        <v>36530.617980000003</v>
       </c>
       <c r="BT24" s="1">
         <v>10.147394</v>
       </c>
       <c r="BU24" s="1">
-        <v>2370.910000</v>
+        <v>2370.91</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2739.820000</v>
+        <v>-2739.82</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>36541.788909</v>
+        <v>36541.788909000003</v>
       </c>
       <c r="BY24" s="1">
         <v>10.150497</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2853.160000</v>
+        <v>2853.16</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3728.430000</v>
+        <v>-3728.43</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>36554.881276</v>
       </c>
       <c r="CD24" s="1">
-        <v>10.154134</v>
+        <v>10.154134000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4281.050000</v>
+        <v>4281.05</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6116.350000</v>
+        <v>-6116.35</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>36381.775023</v>
+        <v>36381.775023000002</v>
       </c>
       <c r="B25" s="1">
-        <v>10.106049</v>
+        <v>10.106049000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1253.210000</v>
+        <v>1253.21</v>
       </c>
       <c r="D25" s="1">
-        <v>-306.888000</v>
+        <v>-306.88799999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>36392.243585</v>
+        <v>36392.243584999997</v>
       </c>
       <c r="G25" s="1">
         <v>10.108957</v>
       </c>
       <c r="H25" s="1">
-        <v>1277.140000</v>
+        <v>1277.1400000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.972000</v>
+        <v>-264.97199999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>36402.427481</v>
+        <v>36402.427480999999</v>
       </c>
       <c r="L25" s="1">
-        <v>10.111785</v>
+        <v>10.111784999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1312.600000</v>
+        <v>1312.6</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.973000</v>
+        <v>-203.97300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>36412.702103</v>
+        <v>36412.702103000003</v>
       </c>
       <c r="Q25" s="1">
         <v>10.114639</v>
       </c>
       <c r="R25" s="1">
-        <v>1324.620000</v>
+        <v>1324.62</v>
       </c>
       <c r="S25" s="1">
-        <v>-185.529000</v>
+        <v>-185.529</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>36422.830873</v>
+        <v>36422.830872999999</v>
       </c>
       <c r="V25" s="1">
-        <v>10.117453</v>
+        <v>10.117452999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1337.700000</v>
+        <v>1337.7</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.978000</v>
+        <v>-171.97800000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>36433.097564</v>
+        <v>36433.097564000003</v>
       </c>
       <c r="AA25" s="1">
         <v>10.120305</v>
       </c>
       <c r="AB25" s="1">
-        <v>1355.110000</v>
+        <v>1355.11</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.716000</v>
+        <v>-169.71600000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>36443.336975</v>
+        <v>36443.336974999998</v>
       </c>
       <c r="AF25" s="1">
         <v>10.123149</v>
       </c>
       <c r="AG25" s="1">
-        <v>1368.240000</v>
+        <v>1368.24</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.365000</v>
+        <v>-179.36500000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>36453.629952</v>
+        <v>36453.629952000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>10.126008</v>
+        <v>10.126008000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1388.890000</v>
+        <v>1388.89</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.201000</v>
+        <v>-209.20099999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>36464.491879</v>
+        <v>36464.491879000001</v>
       </c>
       <c r="AP25" s="1">
         <v>10.129026</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.057000</v>
+        <v>-253.05699999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>36475.892883</v>
@@ -6527,150 +6943,150 @@
         <v>10.132192</v>
       </c>
       <c r="AV25" s="1">
-        <v>1435.000000</v>
+        <v>1435</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.198000</v>
+        <v>-313.19799999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>36486.778580</v>
+        <v>36486.778579999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>10.135216</v>
       </c>
       <c r="BA25" s="1">
-        <v>1454.190000</v>
+        <v>1454.19</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.433000</v>
+        <v>-365.43299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>36497.801176</v>
+        <v>36497.801176000001</v>
       </c>
       <c r="BE25" s="1">
         <v>10.138278</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.850000</v>
+        <v>1538.85</v>
       </c>
       <c r="BG25" s="1">
-        <v>-615.077000</v>
+        <v>-615.077</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>36508.946024</v>
+        <v>36508.946023999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>10.141374</v>
+        <v>10.141374000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1692.420000</v>
+        <v>1692.42</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1063.460000</v>
+        <v>-1063.46</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>36520.023433</v>
+        <v>36520.023433000002</v>
       </c>
       <c r="BO25" s="1">
         <v>10.144451</v>
       </c>
       <c r="BP25" s="1">
-        <v>1985.210000</v>
+        <v>1985.21</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1841.730000</v>
+        <v>-1841.73</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>36531.044063</v>
+        <v>36531.044063000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>10.147512</v>
+        <v>10.147512000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2370.270000</v>
+        <v>2370.27</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2739.640000</v>
+        <v>-2739.64</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>36542.212461</v>
+        <v>36542.212461000003</v>
       </c>
       <c r="BY25" s="1">
         <v>10.150615</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2852.970000</v>
+        <v>2852.97</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3728.440000</v>
+        <v>-3728.44</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>36555.422943</v>
+        <v>36555.422942999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>10.154284</v>
+        <v>10.154284000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4263.120000</v>
+        <v>4263.12</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6111.900000</v>
+        <v>-6111.9</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>36382.140762</v>
+        <v>36382.140762000003</v>
       </c>
       <c r="B26" s="1">
-        <v>10.106150</v>
+        <v>10.10615</v>
       </c>
       <c r="C26" s="1">
-        <v>1253.520000</v>
+        <v>1253.52</v>
       </c>
       <c r="D26" s="1">
-        <v>-306.877000</v>
+        <v>-306.87700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>36392.590291</v>
       </c>
       <c r="G26" s="1">
-        <v>10.109053</v>
+        <v>10.109052999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1277.770000</v>
+        <v>1277.77</v>
       </c>
       <c r="I26" s="1">
-        <v>-265.331000</v>
+        <v>-265.33100000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>36402.774179</v>
@@ -6679,28 +7095,28 @@
         <v>10.111882</v>
       </c>
       <c r="M26" s="1">
-        <v>1312.610000</v>
+        <v>1312.61</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.136000</v>
+        <v>-203.136</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>36413.051286</v>
+        <v>36413.051286000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>10.114736</v>
+        <v>10.114736000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1324.500000</v>
+        <v>1324.5</v>
       </c>
       <c r="S26" s="1">
-        <v>-185.536000</v>
+        <v>-185.536</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>36423.248044</v>
@@ -6709,195 +7125,196 @@
         <v>10.117569</v>
       </c>
       <c r="W26" s="1">
-        <v>1337.790000</v>
+        <v>1337.79</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.997000</v>
+        <v>-171.99700000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>36433.515691</v>
+        <v>36433.515691000001</v>
       </c>
       <c r="AA26" s="1">
         <v>10.120421</v>
       </c>
       <c r="AB26" s="1">
-        <v>1355.240000</v>
+        <v>1355.24</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.632000</v>
+        <v>-169.63200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>36443.617712</v>
+        <v>36443.617711999999</v>
       </c>
       <c r="AF26" s="1">
         <v>10.123227</v>
       </c>
       <c r="AG26" s="1">
-        <v>1368.240000</v>
+        <v>1368.24</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.362000</v>
+        <v>-179.36199999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>36453.836784</v>
+        <v>36453.836783999999</v>
       </c>
       <c r="AK26" s="1">
         <v>10.126066</v>
       </c>
       <c r="AL26" s="1">
-        <v>1388.870000</v>
+        <v>1388.87</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.170000</v>
+        <v>-209.17</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>36464.850945</v>
+        <v>36464.850944999998</v>
       </c>
       <c r="AP26" s="1">
         <v>10.129125</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.070000</v>
+        <v>-253.07</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>36476.258931</v>
+        <v>36476.258930999997</v>
       </c>
       <c r="AU26" s="1">
         <v>10.132294</v>
       </c>
       <c r="AV26" s="1">
-        <v>1434.970000</v>
+        <v>1434.97</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.209000</v>
+        <v>-313.209</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>36487.134247</v>
+        <v>36487.134247000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>10.135315</v>
       </c>
       <c r="BA26" s="1">
-        <v>1454.210000</v>
+        <v>1454.21</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.469000</v>
+        <v>-365.46899999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>36498.523349</v>
+        <v>36498.523349000003</v>
       </c>
       <c r="BE26" s="1">
         <v>10.138479</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.920000</v>
+        <v>1538.92</v>
       </c>
       <c r="BG26" s="1">
-        <v>-615.080000</v>
+        <v>-615.08000000000004</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>36509.300919</v>
+        <v>36509.300919000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>10.141472</v>
       </c>
       <c r="BK26" s="1">
-        <v>1692.410000</v>
+        <v>1692.41</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1063.470000</v>
+        <v>-1063.47</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>36520.425192</v>
+        <v>36520.425192000002</v>
       </c>
       <c r="BO26" s="1">
         <v>10.144563</v>
       </c>
       <c r="BP26" s="1">
-        <v>1985.430000</v>
+        <v>1985.43</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1841.660000</v>
+        <v>-1841.66</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>36531.455754</v>
+        <v>36531.455754000002</v>
       </c>
       <c r="BT26" s="1">
         <v>10.147627</v>
       </c>
       <c r="BU26" s="1">
-        <v>2369.720000</v>
+        <v>2369.7199999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2739.910000</v>
+        <v>-2739.91</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>36542.967372</v>
+        <v>36542.967371999999</v>
       </c>
       <c r="BY26" s="1">
         <v>10.150824</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2851.890000</v>
+        <v>2851.89</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3728.170000</v>
+        <v>-3728.17</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>36556.267098</v>
+        <v>36556.267097999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>10.154519</v>
+        <v>10.154519000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4276.990000</v>
+        <v>4276.99</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6112.180000</v>
+        <v>-6112.18</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>